--- a/Aide/wwwroot/AdvisingMaterial/Majors/Software Engineer/StudyPlan/2019-2020.xlsx
+++ b/Aide/wwwroot/AdvisingMaterial/Majors/Software Engineer/StudyPlan/2019-2020.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ASU 2020 2021\School Advisory\Student Advisory Plan\Advising Material\Advising Material\SE_Plans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ib_ra\Documents\GitHub\Aide\Aide\wwwroot\AdvisingMaterial\Majors\Software Engineer\StudyPlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDF86B1-2033-460A-BFE1-AA78434EA5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" tabRatio="791" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="791" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SE-Ar" sheetId="21" r:id="rId1"/>
@@ -23,12 +24,16 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'SE-Ar'!$B$1:$M$61</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'SE-En'!$B$1:$M$62</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,12 +41,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dr. Mahmood Al-Bashayreh</author>
   </authors>
   <commentList>
-    <comment ref="H5" authorId="0" shapeId="0">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q5" authorId="0" shapeId="0">
+    <comment ref="Q5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0">
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -113,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q15" authorId="0" shapeId="0">
+    <comment ref="Q15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H26" authorId="0" shapeId="0">
+    <comment ref="H26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -161,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q26" authorId="0" shapeId="0">
+    <comment ref="Q26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -185,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H39" authorId="0" shapeId="0">
+    <comment ref="H39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -209,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q39" authorId="0" shapeId="0">
+    <comment ref="Q39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2210,7 +2215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3133,7 +3138,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="340">
+  <cellXfs count="341">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -3566,36 +3571,198 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3614,167 +3781,107 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -3785,18 +3892,81 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3824,12 +3994,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3857,164 +4021,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4043,47 +4090,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4091,6 +4117,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4103,51 +4147,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="23">
     <dxf>
@@ -4855,16 +4863,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>157313</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>707646</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7934</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>731837</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1282170</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>367934</xdr:rowOff>
+      <xdr:rowOff>360000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4893,12 +4901,86 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2963210038" y="7934"/>
+          <a:off x="1469646" y="0"/>
           <a:ext cx="574524" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>116417</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>516715</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14378</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E262DB-EA55-45A8-B5ED-59494014B8F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="296334" y="0"/>
+          <a:ext cx="400298" cy="395378"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4967,51 +5049,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K290" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A1:K290"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:K290" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:K290" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Course#" dataDxfId="20" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Arabic Name" dataDxfId="19" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="English Name" dataDxfId="18" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Thry" dataDxfId="17" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="Pract" dataDxfId="16" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Total" dataDxfId="15" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="Pre (CS)" dataDxfId="14" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="Pre (SE)" dataDxfId="13" dataCellStyle="Normal"/>
-    <tableColumn id="9" name="Pre (CIS)" dataDxfId="12" dataCellStyle="Normal"/>
-    <tableColumn id="10" name="Pre (CNS)" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="11" name=" اسم المساق باللغة الانجليزية على نظام الـ أون لاين التي تختلف عن تسميتنا لمساقات الكليات الأخرى" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Course#" dataDxfId="20" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Arabic Name" dataDxfId="19" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="English Name" dataDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Thry" dataDxfId="17" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Pract" dataDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Total" dataDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Pre (CS)" dataDxfId="14" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Pre (SE)" dataDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Pre (CIS)" dataDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Pre (CNS)" dataDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name=" اسم المساق باللغة الانجليزية على نظام الـ أون لاين التي تختلف عن تسميتنا لمساقات الكليات الأخرى" dataDxfId="10" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table32" displayName="Table32" ref="A19:A35" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="Normal 2 2" dataCellStyle="Normal 2 2">
-  <autoFilter ref="A19:A35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table32" displayName="Table32" ref="A19:A35" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="Normal 2 2" dataCellStyle="Normal 2 2">
+  <autoFilter ref="A19:A35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Academic Year" dataDxfId="7" dataCellStyle="Normal 2 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Academic Year" dataDxfId="7" dataCellStyle="Normal 2 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table4" displayName="Table4" ref="A12:A15" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowCellStyle="Normal 2 2" dataCellStyle="Normal 2 2">
-  <autoFilter ref="A12:A15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A12:A15" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowCellStyle="Normal 2 2" dataCellStyle="Normal 2 2">
+  <autoFilter ref="A12:A15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Semester" dataDxfId="4" dataCellStyle="Normal 2 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Semester" dataDxfId="4" dataCellStyle="Normal 2 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table25" displayName="Table25" ref="A1:B9" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:B9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table25" displayName="Table25" ref="A1:B9" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B9" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Code" dataDxfId="1"/>
-    <tableColumn id="2" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Code" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5093,6 +5175,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5128,6 +5227,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5303,7 +5419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5331,120 +5447,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="201" t="s">
         <v>377</v>
       </c>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
     </row>
     <row r="2" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="201" t="s">
         <v>378</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
     </row>
     <row r="3" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="201" t="s">
         <v>494</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="201"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="201"/>
+      <c r="L3" s="201"/>
+      <c r="M3" s="201"/>
     </row>
     <row r="4" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="181" t="s">
+      <c r="B4" s="201" t="s">
         <v>598</v>
       </c>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="181"/>
-      <c r="M4" s="181"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="201"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="201"/>
+      <c r="J4" s="201"/>
+      <c r="K4" s="201"/>
+      <c r="L4" s="201"/>
+      <c r="M4" s="201"/>
     </row>
     <row r="5" spans="2:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="182" t="s">
+      <c r="B5" s="202" t="s">
         <v>379</v>
       </c>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="182"/>
-      <c r="M5" s="182"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="202"/>
+      <c r="E5" s="202"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="202"/>
+      <c r="I5" s="202"/>
+      <c r="J5" s="202"/>
+      <c r="K5" s="202"/>
+      <c r="L5" s="202"/>
+      <c r="M5" s="202"/>
     </row>
     <row r="6" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="170" t="s">
         <v>458</v>
       </c>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="149" t="s">
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="170" t="s">
         <v>497</v>
       </c>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="150"/>
-      <c r="M6" s="151"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="171"/>
+      <c r="K6" s="171"/>
+      <c r="L6" s="171"/>
+      <c r="M6" s="172"/>
     </row>
     <row r="7" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="175" t="s">
+      <c r="B7" s="190" t="s">
         <v>495</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="175" t="s">
+      <c r="C7" s="191"/>
+      <c r="D7" s="191"/>
+      <c r="E7" s="191"/>
+      <c r="F7" s="191"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="190" t="s">
         <v>460</v>
       </c>
-      <c r="I7" s="176"/>
-      <c r="J7" s="176"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="176"/>
-      <c r="M7" s="177"/>
+      <c r="I7" s="191"/>
+      <c r="J7" s="191"/>
+      <c r="K7" s="191"/>
+      <c r="L7" s="191"/>
+      <c r="M7" s="192"/>
     </row>
     <row r="8" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="118" t="s">
@@ -5453,28 +5569,28 @@
       <c r="C8" s="117" t="s">
         <v>381</v>
       </c>
-      <c r="D8" s="164" t="s">
+      <c r="D8" s="206" t="s">
         <v>390</v>
       </c>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
+      <c r="E8" s="206"/>
+      <c r="F8" s="206"/>
       <c r="G8" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="H8" s="152" t="s">
+      <c r="H8" s="193" t="s">
         <v>380</v>
       </c>
-      <c r="I8" s="154" t="s">
+      <c r="I8" s="195" t="s">
         <v>381</v>
       </c>
-      <c r="J8" s="156" t="s">
+      <c r="J8" s="197" t="s">
         <v>382</v>
       </c>
-      <c r="K8" s="157"/>
-      <c r="L8" s="154" t="s">
+      <c r="K8" s="198"/>
+      <c r="L8" s="195" t="s">
         <v>390</v>
       </c>
-      <c r="M8" s="183" t="s">
+      <c r="M8" s="199" t="s">
         <v>383</v>
       </c>
     </row>
@@ -5485,24 +5601,24 @@
       <c r="C9" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="D9" s="170">
-        <v>3</v>
-      </c>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
+      <c r="D9" s="169">
+        <v>3</v>
+      </c>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
       <c r="G9" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="155"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="196"/>
       <c r="J9" s="10" t="s">
         <v>384</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="L9" s="155"/>
-      <c r="M9" s="184"/>
+      <c r="L9" s="196"/>
+      <c r="M9" s="200"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -5515,12 +5631,12 @@
         <f>VLOOKUP($B10,Crses!$A$2:$J$269,2,FALSE)</f>
         <v>الثقافـــة الإسلامية</v>
       </c>
-      <c r="D10" s="170">
+      <c r="D10" s="169">
         <f>VLOOKUP($B10,Crses!$A$2:$J$290,4,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
       <c r="G10" s="14" t="str">
         <f>VLOOKUP($B10,Crses!$A$2:$J$269,8,FALSE)</f>
         <v>-</v>
@@ -5560,12 +5676,12 @@
         <f>VLOOKUP($B11,Crses!$A$2:$J$269,2,FALSE)</f>
         <v>اللغـــة الـعربيـة (1) **</v>
       </c>
-      <c r="D11" s="170">
+      <c r="D11" s="169">
         <f>VLOOKUP($B11,Crses!$A$2:$J$290,4,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
       <c r="G11" s="14" t="str">
         <f>VLOOKUP($B11,Crses!$A$2:$J$269,8,FALSE)</f>
         <v>-</v>
@@ -5605,12 +5721,12 @@
         <f>VLOOKUP($B12,Crses!$A$2:$J$269,2,FALSE)</f>
         <v>اللغـة الإنجليزيـة (1) **</v>
       </c>
-      <c r="D12" s="170">
+      <c r="D12" s="169">
         <f>VLOOKUP($B12,Crses!$A$2:$J$290,4,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E12" s="170"/>
-      <c r="F12" s="170"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="169"/>
       <c r="G12" s="14" t="str">
         <f>VLOOKUP($B12,Crses!$A$2:$J$269,8,FALSE)</f>
         <v>-</v>
@@ -5649,12 +5765,12 @@
       <c r="C13" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="D13" s="170">
+      <c r="D13" s="169">
         <f>VLOOKUP($B13,Crses!$A$2:$J$290,4,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E13" s="170"/>
-      <c r="F13" s="170"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
       <c r="G13" s="14" t="str">
         <f>VLOOKUP($B13,Crses!$A$2:$J$269,8,FALSE)</f>
         <v>-</v>
@@ -5693,11 +5809,11 @@
       <c r="C14" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="D14" s="170">
-        <v>0</v>
-      </c>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
+      <c r="D14" s="169">
+        <v>0</v>
+      </c>
+      <c r="E14" s="169"/>
+      <c r="F14" s="169"/>
       <c r="G14" s="14" t="s">
         <v>0</v>
       </c>
@@ -5729,16 +5845,16 @@
       <c r="S14" s="2"/>
     </row>
     <row r="15" spans="2:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="168" t="s">
+      <c r="B15" s="188" t="s">
         <v>386</v>
       </c>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169">
+      <c r="C15" s="189"/>
+      <c r="D15" s="189">
         <f>SUM(D9:F13)</f>
         <v>15</v>
       </c>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
       <c r="G15" s="18"/>
       <c r="H15" s="31">
         <v>1301304</v>
@@ -5768,14 +5884,14 @@
       <c r="S15" s="2"/>
     </row>
     <row r="16" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="178" t="s">
+      <c r="B16" s="203" t="s">
         <v>503</v>
       </c>
-      <c r="C16" s="179"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="180"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="205"/>
       <c r="H16" s="31">
         <v>1301305</v>
       </c>
@@ -5810,11 +5926,11 @@
       <c r="C17" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="D17" s="200">
-        <v>3</v>
-      </c>
-      <c r="E17" s="201"/>
-      <c r="F17" s="202"/>
+      <c r="D17" s="163">
+        <v>3</v>
+      </c>
+      <c r="E17" s="164"/>
+      <c r="F17" s="165"/>
       <c r="G17" s="127" t="s">
         <v>0</v>
       </c>
@@ -5852,11 +5968,11 @@
       <c r="C18" s="13" t="s">
         <v>591</v>
       </c>
-      <c r="D18" s="200">
-        <v>3</v>
-      </c>
-      <c r="E18" s="201"/>
-      <c r="F18" s="202"/>
+      <c r="D18" s="163">
+        <v>3</v>
+      </c>
+      <c r="E18" s="164"/>
+      <c r="F18" s="165"/>
       <c r="G18" s="128" t="s">
         <v>0</v>
       </c>
@@ -5894,11 +6010,11 @@
       <c r="C19" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="D19" s="200">
-        <v>3</v>
-      </c>
-      <c r="E19" s="201"/>
-      <c r="F19" s="202"/>
+      <c r="D19" s="163">
+        <v>3</v>
+      </c>
+      <c r="E19" s="164"/>
+      <c r="F19" s="165"/>
       <c r="G19" s="128" t="s">
         <v>0</v>
       </c>
@@ -5937,12 +6053,12 @@
         <f>VLOOKUP($B20,Crses!$A$2:$J$290,2,FALSE)</f>
         <v>القضية الفلسطينية والتاريخ العربي المعاصر</v>
       </c>
-      <c r="D20" s="170">
+      <c r="D20" s="169">
         <f>VLOOKUP($B20,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="169"/>
       <c r="G20" s="14" t="str">
         <f>VLOOKUP($B20,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -5982,12 +6098,12 @@
         <f>VLOOKUP($B21,Crses!$A$2:$J$290,2,FALSE)</f>
         <v>حقوق الإنسان</v>
       </c>
-      <c r="D21" s="170">
+      <c r="D21" s="169">
         <f>VLOOKUP($B21,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="169"/>
       <c r="G21" s="14" t="str">
         <f>VLOOKUP($B21,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -6027,12 +6143,12 @@
         <f>VLOOKUP($B22,Crses!$A$2:$J$290,2,FALSE)</f>
         <v>الإسلام وقضايا العصر</v>
       </c>
-      <c r="D22" s="170">
+      <c r="D22" s="169">
         <f>VLOOKUP($B22,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="169"/>
       <c r="G22" s="14" t="str">
         <f>VLOOKUP($B22,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -6070,12 +6186,12 @@
         <f>VLOOKUP($B23,Crses!$A$2:$J$290,2,FALSE)</f>
         <v>الأخلاق في الإسلام</v>
       </c>
-      <c r="D23" s="170">
+      <c r="D23" s="169">
         <f>VLOOKUP($B23,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="169"/>
       <c r="G23" s="14" t="str">
         <f>VLOOKUP($B23,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -6113,12 +6229,12 @@
         <f>VLOOKUP($B24,Crses!$A$2:$J$290,2,FALSE)</f>
         <v>مدخل إلى علم المكتبات</v>
       </c>
-      <c r="D24" s="170">
+      <c r="D24" s="169">
         <f>VLOOKUP($B24,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="169"/>
       <c r="G24" s="14" t="str">
         <f>VLOOKUP($B24,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -6156,12 +6272,12 @@
         <f>VLOOKUP($B25,Crses!$A$2:$J$290,2,FALSE)</f>
         <v>الرياضة والصحة</v>
       </c>
-      <c r="D25" s="170">
+      <c r="D25" s="169">
         <f>VLOOKUP($B25,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="169"/>
       <c r="G25" s="14" t="str">
         <f>VLOOKUP($B25,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -6199,12 +6315,12 @@
         <f>VLOOKUP($B26,Crses!$A$2:$J$290,2,FALSE)</f>
         <v>مدخل إلى علم الاجتماع</v>
       </c>
-      <c r="D26" s="170">
+      <c r="D26" s="169">
         <f>VLOOKUP($B26,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
+      <c r="E26" s="169"/>
+      <c r="F26" s="169"/>
       <c r="G26" s="14" t="str">
         <f>VLOOKUP($B26,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -6242,12 +6358,12 @@
         <f>VLOOKUP($B27,Crses!$A$2:$J$290,2,FALSE)</f>
         <v>الإنسان والبيئة</v>
       </c>
-      <c r="D27" s="170">
+      <c r="D27" s="169">
         <f>VLOOKUP($B27,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="169"/>
       <c r="G27" s="14" t="str">
         <f>VLOOKUP($B27,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -6285,12 +6401,12 @@
         <f>VLOOKUP($B28,Crses!$A$2:$J$290,2,FALSE)</f>
         <v>مدخل إلى علم النفس</v>
       </c>
-      <c r="D28" s="171">
+      <c r="D28" s="166">
         <f>VLOOKUP($B28,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E28" s="172"/>
-      <c r="F28" s="173"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="168"/>
       <c r="G28" s="14" t="str">
         <f>VLOOKUP($B28,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -6328,12 +6444,12 @@
         <f>VLOOKUP($B29,Crses!$A$2:$J$290,2,FALSE)</f>
         <v>اللغة العربية (2)</v>
       </c>
-      <c r="D29" s="171">
+      <c r="D29" s="166">
         <f>VLOOKUP($B29,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E29" s="172"/>
-      <c r="F29" s="173"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="168"/>
       <c r="G29" s="14">
         <f>VLOOKUP($B29,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>1401110</v>
@@ -6371,12 +6487,12 @@
         <f>VLOOKUP($B30,Crses!$A$2:$J$290,2,FALSE)</f>
         <v>اللغـة الإنجليزية (2)</v>
       </c>
-      <c r="D30" s="171">
+      <c r="D30" s="166">
         <f>VLOOKUP($B30,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E30" s="172"/>
-      <c r="F30" s="173"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="168"/>
       <c r="G30" s="14">
         <f>VLOOKUP($B30,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>1401120</v>
@@ -6414,12 +6530,12 @@
         <f>VLOOKUP($B31,Crses!$A$2:$J$290,2,FALSE)</f>
         <v>العلوم عند العرب والمسلمين</v>
       </c>
-      <c r="D31" s="171">
+      <c r="D31" s="166">
         <f>VLOOKUP($B31,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E31" s="172"/>
-      <c r="F31" s="173"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="168"/>
       <c r="G31" s="14" t="str">
         <f>VLOOKUP($B31,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -6457,12 +6573,12 @@
         <f>VLOOKUP($B32,Crses!$A$2:$J$290,2,FALSE)</f>
         <v>الإسعافات الأولية</v>
       </c>
-      <c r="D32" s="171">
+      <c r="D32" s="166">
         <f>VLOOKUP($B32,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E32" s="172"/>
-      <c r="F32" s="173"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="168"/>
       <c r="G32" s="14" t="str">
         <f>VLOOKUP($B32,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -6500,12 +6616,12 @@
         <f>VLOOKUP($B33,Crses!$A$2:$J$290,2,FALSE)</f>
         <v>الطاقة الخضراء في حياتنا</v>
       </c>
-      <c r="D33" s="171">
+      <c r="D33" s="166">
         <f>VLOOKUP($B33,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E33" s="172"/>
-      <c r="F33" s="173"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="168"/>
       <c r="G33" s="14" t="str">
         <f>VLOOKUP($B33,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -6543,12 +6659,12 @@
         <f>VLOOKUP($B34,Crses!$A$2:$J$290,2,FALSE)</f>
         <v>تكنولوجيا الاتصال و التواصل الاجتماعي</v>
       </c>
-      <c r="D34" s="171">
+      <c r="D34" s="166">
         <f>VLOOKUP($B34,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E34" s="172"/>
-      <c r="F34" s="173"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="168"/>
       <c r="G34" s="14" t="str">
         <f>VLOOKUP($B34,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -6586,12 +6702,12 @@
         <f>VLOOKUP($B35,Crses!$A$2:$J$290,2,FALSE)</f>
         <v>التغذية في الصحة والمرض</v>
       </c>
-      <c r="D35" s="171">
+      <c r="D35" s="166">
         <f>VLOOKUP($B35,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E35" s="172"/>
-      <c r="F35" s="173"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="168"/>
       <c r="G35" s="14" t="str">
         <f>VLOOKUP($B35,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -6629,33 +6745,33 @@
         <f>VLOOKUP($B36,Crses!$A$2:$J$290,2,FALSE)</f>
         <v>الثقافة الصحية</v>
       </c>
-      <c r="D36" s="171">
+      <c r="D36" s="166">
         <f>VLOOKUP($B36,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E36" s="172"/>
-      <c r="F36" s="173"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="168"/>
       <c r="G36" s="14" t="str">
         <f>VLOOKUP($B36,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="H36" s="214" t="s">
+      <c r="H36" s="159" t="s">
         <v>386</v>
       </c>
-      <c r="I36" s="215"/>
-      <c r="J36" s="203">
+      <c r="I36" s="160"/>
+      <c r="J36" s="148">
         <f ca="1">SUM(J8:J36)</f>
         <v>60</v>
       </c>
-      <c r="K36" s="203">
+      <c r="K36" s="148">
         <f ca="1">SUM(K8:K36)</f>
         <v>24</v>
       </c>
-      <c r="L36" s="203">
+      <c r="L36" s="148">
         <f ca="1">SUM(L8:L36)</f>
         <v>72</v>
       </c>
-      <c r="M36" s="203"/>
+      <c r="M36" s="148"/>
       <c r="Q36" s="5"/>
     </row>
     <row r="37" spans="2:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6666,22 +6782,22 @@
         <f>VLOOKUP($B37,Crses!$A$2:$J$290,2,FALSE)</f>
         <v>المجتمعات الرقمية</v>
       </c>
-      <c r="D37" s="171">
+      <c r="D37" s="166">
         <f>VLOOKUP($B37,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E37" s="172"/>
-      <c r="F37" s="173"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="168"/>
       <c r="G37" s="14" t="str">
         <f>VLOOKUP($B37,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="H37" s="216"/>
-      <c r="I37" s="217"/>
-      <c r="J37" s="204"/>
-      <c r="K37" s="204"/>
-      <c r="L37" s="204"/>
-      <c r="M37" s="204"/>
+      <c r="H37" s="161"/>
+      <c r="I37" s="162"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
       <c r="Q37" s="5"/>
     </row>
     <row r="38" spans="2:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6691,82 +6807,82 @@
       <c r="C38" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="D38" s="171">
-        <v>3</v>
-      </c>
-      <c r="E38" s="172"/>
-      <c r="F38" s="173"/>
+      <c r="D38" s="166">
+        <v>3</v>
+      </c>
+      <c r="E38" s="167"/>
+      <c r="F38" s="168"/>
       <c r="G38" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H38" s="205" t="s">
+      <c r="H38" s="150" t="s">
         <v>432</v>
       </c>
-      <c r="I38" s="206"/>
-      <c r="J38" s="206"/>
-      <c r="K38" s="206"/>
-      <c r="L38" s="206"/>
-      <c r="M38" s="207"/>
+      <c r="I38" s="151"/>
+      <c r="J38" s="151"/>
+      <c r="K38" s="151"/>
+      <c r="L38" s="151"/>
+      <c r="M38" s="152"/>
       <c r="Q38" s="5"/>
     </row>
     <row r="39" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="149" t="s">
+      <c r="B39" s="170" t="s">
         <v>459</v>
       </c>
-      <c r="C39" s="150"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="208"/>
-      <c r="I39" s="209"/>
-      <c r="J39" s="209"/>
-      <c r="K39" s="209"/>
-      <c r="L39" s="209"/>
-      <c r="M39" s="210"/>
+      <c r="C39" s="171"/>
+      <c r="D39" s="171"/>
+      <c r="E39" s="171"/>
+      <c r="F39" s="171"/>
+      <c r="G39" s="172"/>
+      <c r="H39" s="153"/>
+      <c r="I39" s="154"/>
+      <c r="J39" s="154"/>
+      <c r="K39" s="154"/>
+      <c r="L39" s="154"/>
+      <c r="M39" s="155"/>
       <c r="Q39" s="5"/>
     </row>
     <row r="40" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="152" t="s">
+      <c r="B40" s="193" t="s">
         <v>380</v>
       </c>
-      <c r="C40" s="154" t="s">
+      <c r="C40" s="195" t="s">
         <v>381</v>
       </c>
-      <c r="D40" s="156" t="s">
+      <c r="D40" s="197" t="s">
         <v>382</v>
       </c>
-      <c r="E40" s="157"/>
-      <c r="F40" s="154" t="s">
+      <c r="E40" s="198"/>
+      <c r="F40" s="195" t="s">
         <v>390</v>
       </c>
-      <c r="G40" s="158" t="s">
+      <c r="G40" s="212" t="s">
         <v>383</v>
       </c>
-      <c r="H40" s="208"/>
-      <c r="I40" s="209"/>
-      <c r="J40" s="209"/>
-      <c r="K40" s="209"/>
-      <c r="L40" s="209"/>
-      <c r="M40" s="210"/>
+      <c r="H40" s="153"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="154"/>
+      <c r="K40" s="154"/>
+      <c r="L40" s="154"/>
+      <c r="M40" s="155"/>
     </row>
     <row r="41" spans="2:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="153"/>
-      <c r="C41" s="155"/>
+      <c r="B41" s="194"/>
+      <c r="C41" s="196"/>
       <c r="D41" s="10" t="s">
         <v>384</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="F41" s="155"/>
-      <c r="G41" s="159"/>
-      <c r="H41" s="211"/>
-      <c r="I41" s="212"/>
-      <c r="J41" s="212"/>
-      <c r="K41" s="212"/>
-      <c r="L41" s="212"/>
-      <c r="M41" s="213"/>
+      <c r="F41" s="196"/>
+      <c r="G41" s="213"/>
+      <c r="H41" s="156"/>
+      <c r="I41" s="157"/>
+      <c r="J41" s="157"/>
+      <c r="K41" s="157"/>
+      <c r="L41" s="157"/>
+      <c r="M41" s="158"/>
     </row>
     <row r="42" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="12">
@@ -6792,14 +6908,14 @@
         <f>VLOOKUP($B42,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="H42" s="160" t="s">
+      <c r="H42" s="214" t="s">
         <v>550</v>
       </c>
-      <c r="I42" s="161"/>
-      <c r="J42" s="161"/>
-      <c r="K42" s="161"/>
-      <c r="L42" s="161"/>
-      <c r="M42" s="162"/>
+      <c r="I42" s="215"/>
+      <c r="J42" s="215"/>
+      <c r="K42" s="215"/>
+      <c r="L42" s="215"/>
+      <c r="M42" s="216"/>
     </row>
     <row r="43" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="12">
@@ -6825,20 +6941,20 @@
         <f>VLOOKUP($B43,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>1301106</v>
       </c>
-      <c r="H43" s="163" t="s">
+      <c r="H43" s="217" t="s">
         <v>380</v>
       </c>
-      <c r="I43" s="164" t="s">
+      <c r="I43" s="206" t="s">
         <v>381</v>
       </c>
-      <c r="J43" s="164" t="s">
+      <c r="J43" s="206" t="s">
         <v>382</v>
       </c>
-      <c r="K43" s="164"/>
-      <c r="L43" s="164" t="s">
+      <c r="K43" s="206"/>
+      <c r="L43" s="206" t="s">
         <v>390</v>
       </c>
-      <c r="M43" s="174" t="s">
+      <c r="M43" s="210" t="s">
         <v>383</v>
       </c>
     </row>
@@ -6866,16 +6982,16 @@
         <f>VLOOKUP($B44,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="H44" s="163"/>
-      <c r="I44" s="164"/>
+      <c r="H44" s="217"/>
+      <c r="I44" s="206"/>
       <c r="J44" s="10" t="s">
         <v>384</v>
       </c>
       <c r="K44" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="L44" s="164"/>
-      <c r="M44" s="174"/>
+      <c r="L44" s="206"/>
+      <c r="M44" s="210"/>
     </row>
     <row r="45" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="12">
@@ -7116,14 +7232,14 @@
         <f>VLOOKUP($H49,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>1301336</v>
       </c>
-      <c r="Q49" s="148"/>
-      <c r="R49" s="148"/>
+      <c r="Q49" s="211"/>
+      <c r="R49" s="211"/>
     </row>
     <row r="50" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="168" t="s">
+      <c r="B50" s="188" t="s">
         <v>386</v>
       </c>
-      <c r="C50" s="169"/>
+      <c r="C50" s="189"/>
       <c r="D50" s="30">
         <f>SUM(D42:D49)</f>
         <v>22</v>
@@ -7162,14 +7278,14 @@
       </c>
     </row>
     <row r="51" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="191" t="s">
+      <c r="B51" s="179" t="s">
         <v>496</v>
       </c>
-      <c r="C51" s="192"/>
-      <c r="D51" s="192"/>
-      <c r="E51" s="192"/>
-      <c r="F51" s="192"/>
-      <c r="G51" s="193"/>
+      <c r="C51" s="180"/>
+      <c r="D51" s="180"/>
+      <c r="E51" s="180"/>
+      <c r="F51" s="180"/>
+      <c r="G51" s="181"/>
       <c r="H51" s="31">
         <v>1301460</v>
       </c>
@@ -7191,12 +7307,12 @@
       </c>
     </row>
     <row r="52" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="194"/>
-      <c r="C52" s="195"/>
-      <c r="D52" s="195"/>
-      <c r="E52" s="195"/>
-      <c r="F52" s="195"/>
-      <c r="G52" s="196"/>
+      <c r="B52" s="182"/>
+      <c r="C52" s="183"/>
+      <c r="D52" s="183"/>
+      <c r="E52" s="183"/>
+      <c r="F52" s="183"/>
+      <c r="G52" s="184"/>
       <c r="H52" s="31">
         <v>1301462</v>
       </c>
@@ -7223,12 +7339,12 @@
       <c r="R52" s="5"/>
     </row>
     <row r="53" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="194"/>
-      <c r="C53" s="195"/>
-      <c r="D53" s="195"/>
-      <c r="E53" s="195"/>
-      <c r="F53" s="195"/>
-      <c r="G53" s="196"/>
+      <c r="B53" s="182"/>
+      <c r="C53" s="183"/>
+      <c r="D53" s="183"/>
+      <c r="E53" s="183"/>
+      <c r="F53" s="183"/>
+      <c r="G53" s="184"/>
       <c r="H53" s="46">
         <v>1301463</v>
       </c>
@@ -7254,12 +7370,12 @@
       </c>
     </row>
     <row r="54" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="197"/>
-      <c r="C54" s="198"/>
-      <c r="D54" s="198"/>
-      <c r="E54" s="198"/>
-      <c r="F54" s="198"/>
-      <c r="G54" s="199"/>
+      <c r="B54" s="185"/>
+      <c r="C54" s="186"/>
+      <c r="D54" s="186"/>
+      <c r="E54" s="186"/>
+      <c r="F54" s="186"/>
+      <c r="G54" s="187"/>
       <c r="H54" s="46">
         <v>1301464</v>
       </c>
@@ -7285,14 +7401,14 @@
       </c>
     </row>
     <row r="55" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="149" t="s">
+      <c r="B55" s="170" t="s">
         <v>457</v>
       </c>
-      <c r="C55" s="150"/>
-      <c r="D55" s="150"/>
-      <c r="E55" s="150"/>
-      <c r="F55" s="150"/>
-      <c r="G55" s="151"/>
+      <c r="C55" s="171"/>
+      <c r="D55" s="171"/>
+      <c r="E55" s="171"/>
+      <c r="F55" s="171"/>
+      <c r="G55" s="172"/>
       <c r="H55" s="46">
         <v>1302337</v>
       </c>
@@ -7318,14 +7434,14 @@
       </c>
     </row>
     <row r="56" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="185" t="s">
+      <c r="B56" s="173" t="s">
         <v>387</v>
       </c>
-      <c r="C56" s="186"/>
-      <c r="D56" s="186"/>
-      <c r="E56" s="186"/>
-      <c r="F56" s="186"/>
-      <c r="G56" s="187"/>
+      <c r="C56" s="174"/>
+      <c r="D56" s="174"/>
+      <c r="E56" s="174"/>
+      <c r="F56" s="174"/>
+      <c r="G56" s="175"/>
       <c r="H56" s="46">
         <v>1302390</v>
       </c>
@@ -7351,12 +7467,12 @@
       </c>
     </row>
     <row r="57" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="188"/>
-      <c r="C57" s="189"/>
-      <c r="D57" s="189"/>
-      <c r="E57" s="189"/>
-      <c r="F57" s="189"/>
-      <c r="G57" s="190"/>
+      <c r="B57" s="176"/>
+      <c r="C57" s="177"/>
+      <c r="D57" s="177"/>
+      <c r="E57" s="177"/>
+      <c r="F57" s="177"/>
+      <c r="G57" s="178"/>
       <c r="H57" s="110">
         <v>1302392</v>
       </c>
@@ -7382,12 +7498,12 @@
       </c>
     </row>
     <row r="58" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="188"/>
-      <c r="C58" s="189"/>
-      <c r="D58" s="189"/>
-      <c r="E58" s="189"/>
-      <c r="F58" s="189"/>
-      <c r="G58" s="190"/>
+      <c r="B58" s="176"/>
+      <c r="C58" s="177"/>
+      <c r="D58" s="177"/>
+      <c r="E58" s="177"/>
+      <c r="F58" s="177"/>
+      <c r="G58" s="178"/>
       <c r="H58" s="110">
         <v>1302483</v>
       </c>
@@ -7413,12 +7529,12 @@
       </c>
     </row>
     <row r="59" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="188"/>
-      <c r="C59" s="189"/>
-      <c r="D59" s="189"/>
-      <c r="E59" s="189"/>
-      <c r="F59" s="189"/>
-      <c r="G59" s="190"/>
+      <c r="B59" s="176"/>
+      <c r="C59" s="177"/>
+      <c r="D59" s="177"/>
+      <c r="E59" s="177"/>
+      <c r="F59" s="177"/>
+      <c r="G59" s="178"/>
       <c r="H59" s="110">
         <v>1302490</v>
       </c>
@@ -7444,20 +7560,20 @@
       </c>
     </row>
     <row r="60" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="165" t="s">
+      <c r="B60" s="207" t="s">
         <v>599</v>
       </c>
-      <c r="C60" s="166"/>
-      <c r="D60" s="166"/>
-      <c r="E60" s="166"/>
-      <c r="F60" s="166"/>
-      <c r="G60" s="166"/>
-      <c r="H60" s="166"/>
-      <c r="I60" s="166"/>
-      <c r="J60" s="166"/>
-      <c r="K60" s="166"/>
-      <c r="L60" s="166"/>
-      <c r="M60" s="167"/>
+      <c r="C60" s="208"/>
+      <c r="D60" s="208"/>
+      <c r="E60" s="208"/>
+      <c r="F60" s="208"/>
+      <c r="G60" s="208"/>
+      <c r="H60" s="208"/>
+      <c r="I60" s="208"/>
+      <c r="J60" s="208"/>
+      <c r="K60" s="208"/>
+      <c r="L60" s="208"/>
+      <c r="M60" s="209"/>
     </row>
     <row r="61" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="8"/>
@@ -7516,53 +7632,21 @@
       <c r="F67" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="H41:H55">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H41:H55">
     <sortCondition ref="H41"/>
   </sortState>
   <mergeCells count="70">
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="H38:M41"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B56:G59"/>
-    <mergeCell ref="B51:G54"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:K43"/>
     <mergeCell ref="B60:M60"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D22:F22"/>
@@ -7579,17 +7663,49 @@
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D33:F33"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B56:G59"/>
+    <mergeCell ref="B51:G54"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="H38:M41"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -7600,13 +7716,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:S68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -7630,170 +7746,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="290" t="s">
+      <c r="B1" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="290"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="290"/>
-      <c r="F1" s="290"/>
-      <c r="G1" s="290"/>
-      <c r="H1" s="290"/>
-      <c r="I1" s="290"/>
-      <c r="J1" s="290"/>
-      <c r="K1" s="290"/>
-      <c r="L1" s="290"/>
-      <c r="M1" s="290"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
+      <c r="I1" s="227"/>
+      <c r="J1" s="227"/>
+      <c r="K1" s="227"/>
+      <c r="L1" s="227"/>
+      <c r="M1" s="227"/>
     </row>
     <row r="2" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="290" t="s">
+      <c r="B2" s="227" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="290"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="290"/>
-      <c r="G2" s="290"/>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="290"/>
-      <c r="L2" s="290"/>
-      <c r="M2" s="290"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="227"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="227"/>
+      <c r="K2" s="227"/>
+      <c r="L2" s="227"/>
+      <c r="M2" s="227"/>
     </row>
     <row r="3" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="290" t="s">
+      <c r="B3" s="227" t="s">
         <v>558</v>
       </c>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290"/>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="290"/>
-      <c r="M3" s="290"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="227"/>
+      <c r="I3" s="227"/>
+      <c r="J3" s="227"/>
+      <c r="K3" s="227"/>
+      <c r="L3" s="227"/>
+      <c r="M3" s="227"/>
     </row>
     <row r="4" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="290" t="s">
+      <c r="B4" s="227" t="s">
         <v>600</v>
       </c>
-      <c r="C4" s="290"/>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="290"/>
-      <c r="G4" s="290"/>
-      <c r="H4" s="290"/>
-      <c r="I4" s="290"/>
-      <c r="J4" s="290"/>
-      <c r="K4" s="290"/>
-      <c r="L4" s="290"/>
-      <c r="M4" s="290"/>
+      <c r="C4" s="227"/>
+      <c r="D4" s="227"/>
+      <c r="E4" s="227"/>
+      <c r="F4" s="227"/>
+      <c r="G4" s="227"/>
+      <c r="H4" s="227"/>
+      <c r="I4" s="227"/>
+      <c r="J4" s="227"/>
+      <c r="K4" s="227"/>
+      <c r="L4" s="227"/>
+      <c r="M4" s="227"/>
     </row>
     <row r="5" spans="2:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="291" t="s">
+      <c r="B5" s="228" t="s">
         <v>551</v>
       </c>
-      <c r="C5" s="291"/>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="291"/>
-      <c r="J5" s="291"/>
-      <c r="K5" s="291"/>
-      <c r="L5" s="291"/>
-      <c r="M5" s="291"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
+      <c r="L5" s="228"/>
+      <c r="M5" s="228"/>
     </row>
     <row r="6" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="222" t="s">
+      <c r="B6" s="224" t="s">
         <v>602</v>
       </c>
-      <c r="C6" s="223"/>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="224"/>
-      <c r="H6" s="222" t="s">
+      <c r="C6" s="225"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="224" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="223"/>
-      <c r="J6" s="223"/>
-      <c r="K6" s="223"/>
-      <c r="L6" s="223"/>
-      <c r="M6" s="224"/>
+      <c r="I6" s="225"/>
+      <c r="J6" s="225"/>
+      <c r="K6" s="225"/>
+      <c r="L6" s="225"/>
+      <c r="M6" s="226"/>
     </row>
     <row r="7" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="273" t="s">
+      <c r="B7" s="229" t="s">
         <v>555</v>
       </c>
-      <c r="C7" s="274"/>
-      <c r="D7" s="274"/>
-      <c r="E7" s="274"/>
-      <c r="F7" s="274"/>
-      <c r="G7" s="275"/>
-      <c r="H7" s="273" t="s">
+      <c r="C7" s="230"/>
+      <c r="D7" s="230"/>
+      <c r="E7" s="230"/>
+      <c r="F7" s="230"/>
+      <c r="G7" s="231"/>
+      <c r="H7" s="229" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="274"/>
-      <c r="J7" s="274"/>
-      <c r="K7" s="274"/>
-      <c r="L7" s="274"/>
-      <c r="M7" s="275"/>
+      <c r="I7" s="230"/>
+      <c r="J7" s="230"/>
+      <c r="K7" s="230"/>
+      <c r="L7" s="230"/>
+      <c r="M7" s="231"/>
     </row>
     <row r="8" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="276" t="s">
+      <c r="B8" s="232" t="s">
         <v>561</v>
       </c>
-      <c r="C8" s="278" t="s">
+      <c r="C8" s="234" t="s">
         <v>563</v>
       </c>
-      <c r="D8" s="284" t="s">
+      <c r="D8" s="240" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="285"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="282" t="s">
+      <c r="E8" s="241"/>
+      <c r="F8" s="242"/>
+      <c r="G8" s="238" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="276" t="s">
+      <c r="H8" s="232" t="s">
         <v>562</v>
       </c>
-      <c r="I8" s="278" t="s">
+      <c r="I8" s="234" t="s">
         <v>563</v>
       </c>
-      <c r="J8" s="280" t="s">
+      <c r="J8" s="236" t="s">
         <v>557</v>
       </c>
-      <c r="K8" s="281"/>
-      <c r="L8" s="278" t="s">
+      <c r="K8" s="237"/>
+      <c r="L8" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="282" t="s">
+      <c r="M8" s="238" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="277"/>
-      <c r="C9" s="279"/>
-      <c r="D9" s="287"/>
-      <c r="E9" s="288"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="283"/>
-      <c r="H9" s="277"/>
-      <c r="I9" s="279"/>
+      <c r="B9" s="233"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="245"/>
+      <c r="G9" s="239"/>
+      <c r="H9" s="233"/>
+      <c r="I9" s="235"/>
       <c r="J9" s="48" t="s">
         <v>556</v>
       </c>
       <c r="K9" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="279"/>
-      <c r="M9" s="283"/>
+      <c r="L9" s="235"/>
+      <c r="M9" s="239"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="34"/>
       <c r="S9" s="34"/>
@@ -7805,12 +7921,12 @@
       <c r="C10" s="32" t="s">
         <v>583</v>
       </c>
-      <c r="D10" s="269">
+      <c r="D10" s="246">
         <f>VLOOKUP($B10,Crses!$A$2:$J$290,4,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E10" s="269"/>
-      <c r="F10" s="269"/>
+      <c r="E10" s="246"/>
+      <c r="F10" s="246"/>
       <c r="G10" s="120" t="str">
         <f>VLOOKUP($B10,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -7850,12 +7966,12 @@
         <f>VLOOKUP($B11,Crses!$A$2:$J$290,3,FALSE)</f>
         <v>The Islamic Culture</v>
       </c>
-      <c r="D11" s="218">
+      <c r="D11" s="252">
         <f>VLOOKUP($B11,Crses!$A$2:$J$290,4,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E11" s="219"/>
-      <c r="F11" s="220"/>
+      <c r="E11" s="253"/>
+      <c r="F11" s="254"/>
       <c r="G11" s="120" t="str">
         <f>VLOOKUP($B11,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -7895,12 +8011,12 @@
         <f>VLOOKUP($B12,Crses!$A$2:$J$290,3,FALSE)</f>
         <v>Arabic Language  (1) **</v>
       </c>
-      <c r="D12" s="218">
+      <c r="D12" s="252">
         <f>VLOOKUP($B12,Crses!$A$2:$J$290,4,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E12" s="219"/>
-      <c r="F12" s="220"/>
+      <c r="E12" s="253"/>
+      <c r="F12" s="254"/>
       <c r="G12" s="120" t="str">
         <f>VLOOKUP($B12,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -7940,12 +8056,12 @@
         <f>VLOOKUP($B13,Crses!$A$2:$J$290,3,FALSE)</f>
         <v>English Language (1) **</v>
       </c>
-      <c r="D13" s="218">
+      <c r="D13" s="252">
         <f>VLOOKUP($B13,Crses!$A$2:$J$290,4,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E13" s="219"/>
-      <c r="F13" s="220"/>
+      <c r="E13" s="253"/>
+      <c r="F13" s="254"/>
       <c r="G13" s="120" t="s">
         <v>0</v>
       </c>
@@ -7983,11 +8099,11 @@
       <c r="C14" s="32" t="s">
         <v>609</v>
       </c>
-      <c r="D14" s="218">
-        <v>3</v>
-      </c>
-      <c r="E14" s="219"/>
-      <c r="F14" s="220"/>
+      <c r="D14" s="252">
+        <v>3</v>
+      </c>
+      <c r="E14" s="253"/>
+      <c r="F14" s="254"/>
       <c r="G14" s="120" t="s">
         <v>0</v>
       </c>
@@ -8025,11 +8141,11 @@
       <c r="C15" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="D15" s="218">
-        <v>0</v>
-      </c>
-      <c r="E15" s="219"/>
-      <c r="F15" s="220"/>
+      <c r="D15" s="252">
+        <v>0</v>
+      </c>
+      <c r="E15" s="253"/>
+      <c r="F15" s="254"/>
       <c r="G15" s="120" t="s">
         <v>0</v>
       </c>
@@ -8061,16 +8177,16 @@
       <c r="S15" s="34"/>
     </row>
     <row r="16" spans="2:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="234" t="s">
+      <c r="B16" s="250" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="235"/>
-      <c r="D16" s="235">
+      <c r="C16" s="251"/>
+      <c r="D16" s="251">
         <f>SUM(D10:F15)</f>
         <v>15</v>
       </c>
-      <c r="E16" s="235"/>
-      <c r="F16" s="235"/>
+      <c r="E16" s="251"/>
+      <c r="F16" s="251"/>
       <c r="G16" s="49"/>
       <c r="H16" s="119">
         <v>1301305</v>
@@ -8100,14 +8216,14 @@
       <c r="S16" s="34"/>
     </row>
     <row r="17" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="270" t="s">
+      <c r="B17" s="247" t="s">
         <v>554</v>
       </c>
-      <c r="C17" s="271"/>
-      <c r="D17" s="271"/>
-      <c r="E17" s="271"/>
-      <c r="F17" s="271"/>
-      <c r="G17" s="272"/>
+      <c r="C17" s="248"/>
+      <c r="D17" s="248"/>
+      <c r="E17" s="248"/>
+      <c r="F17" s="248"/>
+      <c r="G17" s="249"/>
       <c r="H17" s="119">
         <v>1301310</v>
       </c>
@@ -8142,11 +8258,11 @@
       <c r="C18" s="32" t="s">
         <v>593</v>
       </c>
-      <c r="D18" s="269">
-        <v>3</v>
-      </c>
-      <c r="E18" s="269"/>
-      <c r="F18" s="269"/>
+      <c r="D18" s="246">
+        <v>3</v>
+      </c>
+      <c r="E18" s="246"/>
+      <c r="F18" s="246"/>
       <c r="G18" s="129" t="s">
         <v>0</v>
       </c>
@@ -8184,11 +8300,11 @@
       <c r="C19" s="32" t="s">
         <v>594</v>
       </c>
-      <c r="D19" s="269">
-        <v>3</v>
-      </c>
-      <c r="E19" s="269"/>
-      <c r="F19" s="269"/>
+      <c r="D19" s="246">
+        <v>3</v>
+      </c>
+      <c r="E19" s="246"/>
+      <c r="F19" s="246"/>
       <c r="G19" s="129" t="s">
         <v>0</v>
       </c>
@@ -8226,11 +8342,11 @@
       <c r="C20" s="32" t="s">
         <v>595</v>
       </c>
-      <c r="D20" s="269">
-        <v>3</v>
-      </c>
-      <c r="E20" s="269"/>
-      <c r="F20" s="269"/>
+      <c r="D20" s="246">
+        <v>3</v>
+      </c>
+      <c r="E20" s="246"/>
+      <c r="F20" s="246"/>
       <c r="G20" s="120" t="s">
         <v>0</v>
       </c>
@@ -8269,12 +8385,12 @@
         <f>VLOOKUP($B21,Crses!$A$2:$J$290,3,FALSE)</f>
         <v>Palastinian Issue and Contemporary Arab History</v>
       </c>
-      <c r="D21" s="269">
+      <c r="D21" s="246">
         <f>VLOOKUP($B21,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E21" s="269"/>
-      <c r="F21" s="269"/>
+      <c r="E21" s="246"/>
+      <c r="F21" s="246"/>
       <c r="G21" s="120" t="str">
         <f>VLOOKUP($B21,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -8314,12 +8430,12 @@
         <f>VLOOKUP($B22,Crses!$A$2:$J$290,3,FALSE)</f>
         <v>Human Rights</v>
       </c>
-      <c r="D22" s="218">
+      <c r="D22" s="252">
         <f>VLOOKUP($B22,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E22" s="219"/>
-      <c r="F22" s="220"/>
+      <c r="E22" s="253"/>
+      <c r="F22" s="254"/>
       <c r="G22" s="120" t="str">
         <f>VLOOKUP($B22,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -8357,12 +8473,12 @@
         <f>VLOOKUP($B23,Crses!$A$2:$J$290,3,FALSE)</f>
         <v>Islam and Contemporary Issues</v>
       </c>
-      <c r="D23" s="218">
+      <c r="D23" s="252">
         <f>VLOOKUP($B23,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E23" s="219"/>
-      <c r="F23" s="220"/>
+      <c r="E23" s="253"/>
+      <c r="F23" s="254"/>
       <c r="G23" s="120" t="str">
         <f>VLOOKUP($B23,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -8400,12 +8516,12 @@
         <f>VLOOKUP($B24,Crses!$A$2:$J$290,3,FALSE)</f>
         <v>Ethics in Islam</v>
       </c>
-      <c r="D24" s="218">
+      <c r="D24" s="252">
         <f>VLOOKUP($B24,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E24" s="219"/>
-      <c r="F24" s="220"/>
+      <c r="E24" s="253"/>
+      <c r="F24" s="254"/>
       <c r="G24" s="120" t="str">
         <f>VLOOKUP($B24,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -8443,12 +8559,12 @@
         <f>VLOOKUP($B25,Crses!$A$2:$J$290,3,FALSE)</f>
         <v>Introduction to Library Science</v>
       </c>
-      <c r="D25" s="218">
+      <c r="D25" s="252">
         <f>VLOOKUP($B25,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E25" s="219"/>
-      <c r="F25" s="220"/>
+      <c r="E25" s="253"/>
+      <c r="F25" s="254"/>
       <c r="G25" s="120" t="str">
         <f>VLOOKUP($B25,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -8486,12 +8602,12 @@
         <f>VLOOKUP($B26,Crses!$A$2:$J$290,3,FALSE)</f>
         <v>Sports and Health</v>
       </c>
-      <c r="D26" s="218">
+      <c r="D26" s="252">
         <f>VLOOKUP($B26,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E26" s="219"/>
-      <c r="F26" s="220"/>
+      <c r="E26" s="253"/>
+      <c r="F26" s="254"/>
       <c r="G26" s="120" t="str">
         <f>VLOOKUP($B26,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -8529,12 +8645,12 @@
         <f>VLOOKUP($B27,Crses!$A$2:$J$290,3,FALSE)</f>
         <v>Introduction to Sociology</v>
       </c>
-      <c r="D27" s="218">
+      <c r="D27" s="252">
         <f>VLOOKUP($B27,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E27" s="219"/>
-      <c r="F27" s="220"/>
+      <c r="E27" s="253"/>
+      <c r="F27" s="254"/>
       <c r="G27" s="120" t="str">
         <f>VLOOKUP($B27,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -8572,12 +8688,12 @@
         <f>VLOOKUP($B28,Crses!$A$2:$J$290,3,FALSE)</f>
         <v>Human and the Environment</v>
       </c>
-      <c r="D28" s="218">
+      <c r="D28" s="252">
         <f>VLOOKUP($B28,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E28" s="219"/>
-      <c r="F28" s="220"/>
+      <c r="E28" s="253"/>
+      <c r="F28" s="254"/>
       <c r="G28" s="120" t="str">
         <f>VLOOKUP($B28,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -8615,12 +8731,12 @@
         <f>VLOOKUP($B29,Crses!$A$2:$J$290,3,FALSE)</f>
         <v>Inroduction to Psychology</v>
       </c>
-      <c r="D29" s="218">
+      <c r="D29" s="252">
         <f>VLOOKUP($B29,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E29" s="219"/>
-      <c r="F29" s="220"/>
+      <c r="E29" s="253"/>
+      <c r="F29" s="254"/>
       <c r="G29" s="120" t="str">
         <f>VLOOKUP($B29,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -8658,12 +8774,12 @@
         <f>VLOOKUP($B30,Crses!$A$2:$J$290,3,FALSE)</f>
         <v>Arabic Language  (2)</v>
       </c>
-      <c r="D30" s="218">
+      <c r="D30" s="252">
         <f>VLOOKUP($B30,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E30" s="219"/>
-      <c r="F30" s="220"/>
+      <c r="E30" s="253"/>
+      <c r="F30" s="254"/>
       <c r="G30" s="120">
         <f>VLOOKUP($B30,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>1401110</v>
@@ -8701,12 +8817,12 @@
         <f>VLOOKUP($B31,Crses!$A$2:$J$290,3,FALSE)</f>
         <v>English Language (2)</v>
       </c>
-      <c r="D31" s="218">
+      <c r="D31" s="252">
         <f>VLOOKUP($B31,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E31" s="219"/>
-      <c r="F31" s="220"/>
+      <c r="E31" s="253"/>
+      <c r="F31" s="254"/>
       <c r="G31" s="120">
         <f>VLOOKUP($B31,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>1401120</v>
@@ -8744,12 +8860,12 @@
         <f>VLOOKUP($B32,Crses!$A$2:$J$290,3,FALSE)</f>
         <v>Arab and Muslims Sciences</v>
       </c>
-      <c r="D32" s="218">
+      <c r="D32" s="252">
         <f>VLOOKUP($B32,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E32" s="219"/>
-      <c r="F32" s="220"/>
+      <c r="E32" s="253"/>
+      <c r="F32" s="254"/>
       <c r="G32" s="120" t="str">
         <f>VLOOKUP($B32,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -8787,12 +8903,12 @@
         <f>VLOOKUP($B33,Crses!$A$2:$J$290,3,FALSE)</f>
         <v>First Aid</v>
       </c>
-      <c r="D33" s="218">
+      <c r="D33" s="252">
         <f>VLOOKUP($B33,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E33" s="219"/>
-      <c r="F33" s="220"/>
+      <c r="E33" s="253"/>
+      <c r="F33" s="254"/>
       <c r="G33" s="120" t="str">
         <f>VLOOKUP($B33,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -8830,12 +8946,12 @@
         <f>VLOOKUP($B34,Crses!$A$2:$J$290,3,FALSE)</f>
         <v xml:space="preserve">Green Energy </v>
       </c>
-      <c r="D34" s="218">
+      <c r="D34" s="252">
         <f>VLOOKUP($B34,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E34" s="219"/>
-      <c r="F34" s="220"/>
+      <c r="E34" s="253"/>
+      <c r="F34" s="254"/>
       <c r="G34" s="120" t="str">
         <f>VLOOKUP($B34,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -8873,12 +8989,12 @@
         <f>VLOOKUP($B35,Crses!$A$2:$J$290,3,FALSE)</f>
         <v>Communication and Social Media Technology</v>
       </c>
-      <c r="D35" s="218">
+      <c r="D35" s="252">
         <f>VLOOKUP($B35,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E35" s="219"/>
-      <c r="F35" s="220"/>
+      <c r="E35" s="253"/>
+      <c r="F35" s="254"/>
       <c r="G35" s="120" t="str">
         <f>VLOOKUP($B35,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
@@ -8916,33 +9032,33 @@
         <f>VLOOKUP($B36,Crses!$A$2:$J$290,3,FALSE)</f>
         <v>Nutrition in Health and Illness</v>
       </c>
-      <c r="D36" s="218">
+      <c r="D36" s="252">
         <f>VLOOKUP($B36,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E36" s="219"/>
-      <c r="F36" s="220"/>
+      <c r="E36" s="253"/>
+      <c r="F36" s="254"/>
       <c r="G36" s="120" t="str">
         <f>VLOOKUP($B36,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="H36" s="294" t="s">
+      <c r="H36" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="I36" s="295"/>
-      <c r="J36" s="292">
+      <c r="I36" s="221"/>
+      <c r="J36" s="218">
         <f ca="1">SUM(J7:J36)</f>
         <v>60</v>
       </c>
-      <c r="K36" s="292">
+      <c r="K36" s="218">
         <f ca="1">SUM(K7:K36)</f>
         <v>24</v>
       </c>
-      <c r="L36" s="292">
+      <c r="L36" s="218">
         <f ca="1">SUM(L7:L36)</f>
         <v>72</v>
       </c>
-      <c r="M36" s="292"/>
+      <c r="M36" s="218"/>
       <c r="Q36" s="38"/>
     </row>
     <row r="37" spans="2:17" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8953,22 +9069,22 @@
         <f>VLOOKUP($B37,Crses!$A$2:$J$290,3,FALSE)</f>
         <v>Health Education</v>
       </c>
-      <c r="D37" s="218">
+      <c r="D37" s="252">
         <f>VLOOKUP($B37,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E37" s="219"/>
-      <c r="F37" s="220"/>
+      <c r="E37" s="253"/>
+      <c r="F37" s="254"/>
       <c r="G37" s="120" t="str">
         <f>VLOOKUP($B37,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="H37" s="296"/>
-      <c r="I37" s="297"/>
-      <c r="J37" s="293"/>
-      <c r="K37" s="293"/>
-      <c r="L37" s="293"/>
-      <c r="M37" s="293"/>
+      <c r="H37" s="222"/>
+      <c r="I37" s="223"/>
+      <c r="J37" s="219"/>
+      <c r="K37" s="219"/>
+      <c r="L37" s="219"/>
+      <c r="M37" s="219"/>
       <c r="Q37" s="38"/>
     </row>
     <row r="38" spans="2:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8979,24 +9095,24 @@
         <f>VLOOKUP($B38,Crses!$A$2:$J$290,3,FALSE)</f>
         <v>Digital Societies</v>
       </c>
-      <c r="D38" s="218">
+      <c r="D38" s="252">
         <f>VLOOKUP($B38,Crses!$A$2:$J$290,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E38" s="219"/>
-      <c r="F38" s="220"/>
+      <c r="E38" s="253"/>
+      <c r="F38" s="254"/>
       <c r="G38" s="120" t="str">
         <f>VLOOKUP($B38,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="H38" s="254" t="s">
+      <c r="H38" s="264" t="s">
         <v>553</v>
       </c>
-      <c r="I38" s="255"/>
-      <c r="J38" s="255"/>
-      <c r="K38" s="255"/>
-      <c r="L38" s="255"/>
-      <c r="M38" s="256"/>
+      <c r="I38" s="265"/>
+      <c r="J38" s="265"/>
+      <c r="K38" s="265"/>
+      <c r="L38" s="265"/>
+      <c r="M38" s="266"/>
       <c r="Q38" s="38"/>
     </row>
     <row r="39" spans="2:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -9006,96 +9122,96 @@
       <c r="C39" s="32" t="s">
         <v>586</v>
       </c>
-      <c r="D39" s="218">
-        <v>3</v>
-      </c>
-      <c r="E39" s="219"/>
-      <c r="F39" s="220"/>
+      <c r="D39" s="252">
+        <v>3</v>
+      </c>
+      <c r="E39" s="253"/>
+      <c r="F39" s="254"/>
       <c r="G39" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="H39" s="257"/>
-      <c r="I39" s="258"/>
-      <c r="J39" s="258"/>
-      <c r="K39" s="258"/>
-      <c r="L39" s="258"/>
-      <c r="M39" s="259"/>
+      <c r="H39" s="267"/>
+      <c r="I39" s="268"/>
+      <c r="J39" s="268"/>
+      <c r="K39" s="268"/>
+      <c r="L39" s="268"/>
+      <c r="M39" s="269"/>
       <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="2:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="263" t="s">
+      <c r="B40" s="273" t="s">
         <v>437</v>
       </c>
-      <c r="C40" s="264"/>
-      <c r="D40" s="264"/>
-      <c r="E40" s="264"/>
-      <c r="F40" s="264"/>
-      <c r="G40" s="265"/>
-      <c r="H40" s="257"/>
-      <c r="I40" s="258"/>
-      <c r="J40" s="258"/>
-      <c r="K40" s="258"/>
-      <c r="L40" s="258"/>
-      <c r="M40" s="259"/>
+      <c r="C40" s="274"/>
+      <c r="D40" s="274"/>
+      <c r="E40" s="274"/>
+      <c r="F40" s="274"/>
+      <c r="G40" s="275"/>
+      <c r="H40" s="267"/>
+      <c r="I40" s="268"/>
+      <c r="J40" s="268"/>
+      <c r="K40" s="268"/>
+      <c r="L40" s="268"/>
+      <c r="M40" s="269"/>
       <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="2:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="266"/>
-      <c r="C41" s="267"/>
-      <c r="D41" s="267"/>
-      <c r="E41" s="267"/>
-      <c r="F41" s="267"/>
-      <c r="G41" s="268"/>
-      <c r="H41" s="257"/>
-      <c r="I41" s="258"/>
-      <c r="J41" s="258"/>
-      <c r="K41" s="258"/>
-      <c r="L41" s="258"/>
-      <c r="M41" s="259"/>
+      <c r="B41" s="276"/>
+      <c r="C41" s="277"/>
+      <c r="D41" s="277"/>
+      <c r="E41" s="277"/>
+      <c r="F41" s="277"/>
+      <c r="G41" s="278"/>
+      <c r="H41" s="267"/>
+      <c r="I41" s="268"/>
+      <c r="J41" s="268"/>
+      <c r="K41" s="268"/>
+      <c r="L41" s="268"/>
+      <c r="M41" s="269"/>
     </row>
     <row r="42" spans="2:17" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="251" t="s">
+      <c r="B42" s="261" t="s">
         <v>562</v>
       </c>
-      <c r="C42" s="252" t="s">
+      <c r="C42" s="262" t="s">
         <v>563</v>
       </c>
-      <c r="D42" s="252" t="s">
+      <c r="D42" s="262" t="s">
         <v>557</v>
       </c>
-      <c r="E42" s="252"/>
-      <c r="F42" s="252" t="s">
+      <c r="E42" s="262"/>
+      <c r="F42" s="262" t="s">
         <v>1</v>
       </c>
-      <c r="G42" s="253" t="s">
+      <c r="G42" s="263" t="s">
         <v>23</v>
       </c>
-      <c r="H42" s="260"/>
-      <c r="I42" s="261"/>
-      <c r="J42" s="261"/>
-      <c r="K42" s="261"/>
-      <c r="L42" s="261"/>
-      <c r="M42" s="262"/>
+      <c r="H42" s="270"/>
+      <c r="I42" s="271"/>
+      <c r="J42" s="271"/>
+      <c r="K42" s="271"/>
+      <c r="L42" s="271"/>
+      <c r="M42" s="272"/>
     </row>
     <row r="43" spans="2:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="251"/>
-      <c r="C43" s="252"/>
+      <c r="B43" s="261"/>
+      <c r="C43" s="262"/>
       <c r="D43" s="48" t="s">
         <v>556</v>
       </c>
       <c r="E43" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="252"/>
-      <c r="G43" s="253"/>
-      <c r="H43" s="248" t="s">
+      <c r="F43" s="262"/>
+      <c r="G43" s="263"/>
+      <c r="H43" s="258" t="s">
         <v>67</v>
       </c>
-      <c r="I43" s="249"/>
-      <c r="J43" s="249"/>
-      <c r="K43" s="249"/>
-      <c r="L43" s="249"/>
-      <c r="M43" s="250"/>
+      <c r="I43" s="259"/>
+      <c r="J43" s="259"/>
+      <c r="K43" s="259"/>
+      <c r="L43" s="259"/>
+      <c r="M43" s="260"/>
     </row>
     <row r="44" spans="2:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="122">
@@ -9121,20 +9237,20 @@
         <f>VLOOKUP($B44,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="H44" s="251" t="s">
+      <c r="H44" s="261" t="s">
         <v>562</v>
       </c>
-      <c r="I44" s="252" t="s">
+      <c r="I44" s="262" t="s">
         <v>563</v>
       </c>
-      <c r="J44" s="252" t="s">
+      <c r="J44" s="262" t="s">
         <v>557</v>
       </c>
-      <c r="K44" s="252"/>
-      <c r="L44" s="252" t="s">
+      <c r="K44" s="262"/>
+      <c r="L44" s="262" t="s">
         <v>1</v>
       </c>
-      <c r="M44" s="253" t="s">
+      <c r="M44" s="263" t="s">
         <v>23</v>
       </c>
     </row>
@@ -9162,16 +9278,16 @@
         <f>VLOOKUP($B45,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>1301106</v>
       </c>
-      <c r="H45" s="251"/>
-      <c r="I45" s="252"/>
+      <c r="H45" s="261"/>
+      <c r="I45" s="262"/>
       <c r="J45" s="48" t="s">
         <v>556</v>
       </c>
       <c r="K45" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="252"/>
-      <c r="M45" s="253"/>
+      <c r="L45" s="262"/>
+      <c r="M45" s="263"/>
     </row>
     <row r="46" spans="2:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="122">
@@ -9412,8 +9528,8 @@
         <f>VLOOKUP($H50,Crses!$A$2:$J$290,8,FALSE)</f>
         <v>1301336</v>
       </c>
-      <c r="Q50" s="221"/>
-      <c r="R50" s="221"/>
+      <c r="Q50" s="279"/>
+      <c r="R50" s="279"/>
     </row>
     <row r="51" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="122">
@@ -9464,10 +9580,10 @@
       </c>
     </row>
     <row r="52" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="234" t="s">
+      <c r="B52" s="250" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="235"/>
+      <c r="C52" s="251"/>
       <c r="D52" s="50">
         <f>SUM(D44:D51)</f>
         <v>22</v>
@@ -9502,14 +9618,14 @@
       </c>
     </row>
     <row r="53" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="236" t="s">
+      <c r="B53" s="289" t="s">
         <v>564</v>
       </c>
-      <c r="C53" s="237"/>
-      <c r="D53" s="237"/>
-      <c r="E53" s="237"/>
-      <c r="F53" s="237"/>
-      <c r="G53" s="238"/>
+      <c r="C53" s="290"/>
+      <c r="D53" s="290"/>
+      <c r="E53" s="290"/>
+      <c r="F53" s="290"/>
+      <c r="G53" s="291"/>
       <c r="H53" s="124">
         <v>1301462</v>
       </c>
@@ -9536,12 +9652,12 @@
       <c r="R53" s="38"/>
     </row>
     <row r="54" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="239"/>
-      <c r="C54" s="240"/>
-      <c r="D54" s="240"/>
-      <c r="E54" s="240"/>
-      <c r="F54" s="240"/>
-      <c r="G54" s="241"/>
+      <c r="B54" s="292"/>
+      <c r="C54" s="293"/>
+      <c r="D54" s="293"/>
+      <c r="E54" s="293"/>
+      <c r="F54" s="293"/>
+      <c r="G54" s="294"/>
       <c r="H54" s="124">
         <v>1301463</v>
       </c>
@@ -9567,12 +9683,12 @@
       </c>
     </row>
     <row r="55" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="242"/>
-      <c r="C55" s="243"/>
-      <c r="D55" s="243"/>
-      <c r="E55" s="243"/>
-      <c r="F55" s="243"/>
-      <c r="G55" s="244"/>
+      <c r="B55" s="295"/>
+      <c r="C55" s="296"/>
+      <c r="D55" s="296"/>
+      <c r="E55" s="296"/>
+      <c r="F55" s="296"/>
+      <c r="G55" s="297"/>
       <c r="H55" s="124">
         <v>1301464</v>
       </c>
@@ -9598,14 +9714,14 @@
       </c>
     </row>
     <row r="56" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="222" t="s">
+      <c r="B56" s="224" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="223"/>
-      <c r="D56" s="223"/>
-      <c r="E56" s="223"/>
-      <c r="F56" s="223"/>
-      <c r="G56" s="224"/>
+      <c r="C56" s="225"/>
+      <c r="D56" s="225"/>
+      <c r="E56" s="225"/>
+      <c r="F56" s="225"/>
+      <c r="G56" s="226"/>
       <c r="H56" s="124">
         <v>1302337</v>
       </c>
@@ -9631,14 +9747,14 @@
       </c>
     </row>
     <row r="57" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="225" t="s">
+      <c r="B57" s="280" t="s">
         <v>596</v>
       </c>
-      <c r="C57" s="226"/>
-      <c r="D57" s="226"/>
-      <c r="E57" s="226"/>
-      <c r="F57" s="226"/>
-      <c r="G57" s="227"/>
+      <c r="C57" s="281"/>
+      <c r="D57" s="281"/>
+      <c r="E57" s="281"/>
+      <c r="F57" s="281"/>
+      <c r="G57" s="282"/>
       <c r="H57" s="124">
         <v>1302390</v>
       </c>
@@ -9664,12 +9780,12 @@
       </c>
     </row>
     <row r="58" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="228"/>
-      <c r="C58" s="229"/>
-      <c r="D58" s="229"/>
-      <c r="E58" s="229"/>
-      <c r="F58" s="229"/>
-      <c r="G58" s="230"/>
+      <c r="B58" s="283"/>
+      <c r="C58" s="284"/>
+      <c r="D58" s="284"/>
+      <c r="E58" s="284"/>
+      <c r="F58" s="284"/>
+      <c r="G58" s="285"/>
       <c r="H58" s="124">
         <v>1302392</v>
       </c>
@@ -9695,12 +9811,12 @@
       </c>
     </row>
     <row r="59" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="228"/>
-      <c r="C59" s="229"/>
-      <c r="D59" s="229"/>
-      <c r="E59" s="229"/>
-      <c r="F59" s="229"/>
-      <c r="G59" s="230"/>
+      <c r="B59" s="283"/>
+      <c r="C59" s="284"/>
+      <c r="D59" s="284"/>
+      <c r="E59" s="284"/>
+      <c r="F59" s="284"/>
+      <c r="G59" s="285"/>
       <c r="H59" s="124">
         <v>1302483</v>
       </c>
@@ -9726,12 +9842,12 @@
       </c>
     </row>
     <row r="60" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="231"/>
-      <c r="C60" s="232"/>
-      <c r="D60" s="232"/>
-      <c r="E60" s="232"/>
-      <c r="F60" s="232"/>
-      <c r="G60" s="233"/>
+      <c r="B60" s="286"/>
+      <c r="C60" s="287"/>
+      <c r="D60" s="287"/>
+      <c r="E60" s="287"/>
+      <c r="F60" s="287"/>
+      <c r="G60" s="288"/>
       <c r="H60" s="124">
         <v>1302490</v>
       </c>
@@ -9757,20 +9873,20 @@
       </c>
     </row>
     <row r="61" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="245" t="s">
+      <c r="B61" s="255" t="s">
         <v>601</v>
       </c>
-      <c r="C61" s="246"/>
-      <c r="D61" s="246"/>
-      <c r="E61" s="246"/>
-      <c r="F61" s="246"/>
-      <c r="G61" s="246"/>
-      <c r="H61" s="246"/>
-      <c r="I61" s="246"/>
-      <c r="J61" s="246"/>
-      <c r="K61" s="246"/>
-      <c r="L61" s="246"/>
-      <c r="M61" s="247"/>
+      <c r="C61" s="256"/>
+      <c r="D61" s="256"/>
+      <c r="E61" s="256"/>
+      <c r="F61" s="256"/>
+      <c r="G61" s="256"/>
+      <c r="H61" s="256"/>
+      <c r="I61" s="256"/>
+      <c r="J61" s="256"/>
+      <c r="K61" s="256"/>
+      <c r="L61" s="256"/>
+      <c r="M61" s="257"/>
     </row>
     <row r="62" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F62" s="27"/>
@@ -9802,46 +9918,32 @@
       <c r="F68" s="27"/>
     </row>
   </sheetData>
-  <sortState ref="H41:H51">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H41:H51">
     <sortCondition ref="H41"/>
   </sortState>
   <mergeCells count="73">
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D8:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G60"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:G55"/>
     <mergeCell ref="B61:M61"/>
     <mergeCell ref="H43:M43"/>
     <mergeCell ref="H44:H45"/>
@@ -9857,28 +9959,42 @@
     <mergeCell ref="H38:M42"/>
     <mergeCell ref="D39:F39"/>
     <mergeCell ref="B40:G41"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G60"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:G55"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D8:F9"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="H36:I37"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -9889,7 +10005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9917,75 +10033,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="303" t="s">
+      <c r="B1" s="317" t="s">
         <v>597</v>
       </c>
-      <c r="C1" s="304"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="304"/>
-      <c r="F1" s="304"/>
-      <c r="G1" s="304"/>
-      <c r="H1" s="304"/>
-      <c r="I1" s="305"/>
-      <c r="J1" s="305"/>
-      <c r="K1" s="305"/>
-      <c r="L1" s="305"/>
-      <c r="M1" s="305"/>
-      <c r="N1" s="306"/>
+      <c r="C1" s="318"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="319"/>
+      <c r="J1" s="319"/>
+      <c r="K1" s="319"/>
+      <c r="L1" s="319"/>
+      <c r="M1" s="319"/>
+      <c r="N1" s="320"/>
     </row>
     <row r="2" spans="2:14" s="22" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="309" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="312"/>
-      <c r="D2" s="312"/>
-      <c r="E2" s="312"/>
-      <c r="F2" s="312"/>
-      <c r="G2" s="312"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="309"/>
+      <c r="E2" s="309"/>
+      <c r="F2" s="309"/>
+      <c r="G2" s="309"/>
       <c r="H2" s="109"/>
-      <c r="I2" s="312" t="s">
+      <c r="I2" s="309" t="s">
         <v>389</v>
       </c>
-      <c r="J2" s="312"/>
-      <c r="K2" s="312"/>
-      <c r="L2" s="312"/>
-      <c r="M2" s="312"/>
-      <c r="N2" s="312"/>
+      <c r="J2" s="309"/>
+      <c r="K2" s="309"/>
+      <c r="L2" s="309"/>
+      <c r="M2" s="309"/>
+      <c r="N2" s="309"/>
     </row>
     <row r="3" spans="2:14" ht="12" x14ac:dyDescent="0.2">
-      <c r="B3" s="313" t="s">
+      <c r="B3" s="307" t="s">
         <v>380</v>
       </c>
-      <c r="C3" s="307" t="s">
+      <c r="C3" s="310" t="s">
         <v>381</v>
       </c>
-      <c r="D3" s="307" t="s">
+      <c r="D3" s="310" t="s">
         <v>390</v>
       </c>
-      <c r="E3" s="307"/>
-      <c r="F3" s="307"/>
-      <c r="G3" s="308" t="s">
+      <c r="E3" s="310"/>
+      <c r="F3" s="310"/>
+      <c r="G3" s="305" t="s">
         <v>391</v>
       </c>
       <c r="H3" s="78"/>
-      <c r="I3" s="313" t="s">
+      <c r="I3" s="307" t="s">
         <v>380</v>
       </c>
-      <c r="J3" s="307" t="s">
+      <c r="J3" s="310" t="s">
         <v>381</v>
       </c>
-      <c r="K3" s="307" t="s">
+      <c r="K3" s="310" t="s">
         <v>390</v>
       </c>
-      <c r="L3" s="307"/>
-      <c r="M3" s="307"/>
-      <c r="N3" s="308" t="s">
+      <c r="L3" s="310"/>
+      <c r="M3" s="310"/>
+      <c r="N3" s="305" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="12" x14ac:dyDescent="0.2">
-      <c r="B4" s="314"/>
-      <c r="C4" s="315"/>
+      <c r="B4" s="308"/>
+      <c r="C4" s="311"/>
       <c r="D4" s="79" t="s">
         <v>392</v>
       </c>
@@ -9995,10 +10111,10 @@
       <c r="F4" s="79" t="s">
         <v>386</v>
       </c>
-      <c r="G4" s="309"/>
+      <c r="G4" s="306"/>
       <c r="H4" s="78"/>
-      <c r="I4" s="314"/>
-      <c r="J4" s="315"/>
+      <c r="I4" s="308"/>
+      <c r="J4" s="311"/>
       <c r="K4" s="79" t="s">
         <v>392</v>
       </c>
@@ -10008,7 +10124,7 @@
       <c r="M4" s="79" t="s">
         <v>386</v>
       </c>
-      <c r="N4" s="309"/>
+      <c r="N4" s="306"/>
     </row>
     <row r="5" spans="2:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B5" s="80">
@@ -10255,10 +10371,10 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="310" t="s">
+      <c r="B10" s="303" t="s">
         <v>386</v>
       </c>
-      <c r="C10" s="311"/>
+      <c r="C10" s="304"/>
       <c r="D10" s="85">
         <f>SUM(D5:D9)</f>
         <v>14</v>
@@ -10273,10 +10389,10 @@
       </c>
       <c r="G10" s="86"/>
       <c r="H10" s="87"/>
-      <c r="I10" s="310" t="s">
+      <c r="I10" s="303" t="s">
         <v>386</v>
       </c>
-      <c r="J10" s="311"/>
+      <c r="J10" s="304"/>
       <c r="K10" s="85">
         <f>SUM(K5:K9)</f>
         <v>14</v>
@@ -10307,58 +10423,58 @@
       <c r="N11" s="99"/>
     </row>
     <row r="12" spans="2:14" s="22" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="312" t="s">
+      <c r="B12" s="309" t="s">
         <v>394</v>
       </c>
-      <c r="C12" s="312"/>
-      <c r="D12" s="312"/>
-      <c r="E12" s="312"/>
-      <c r="F12" s="312"/>
-      <c r="G12" s="312"/>
+      <c r="C12" s="309"/>
+      <c r="D12" s="309"/>
+      <c r="E12" s="309"/>
+      <c r="F12" s="309"/>
+      <c r="G12" s="309"/>
       <c r="H12" s="108"/>
-      <c r="I12" s="312" t="s">
+      <c r="I12" s="309" t="s">
         <v>395</v>
       </c>
-      <c r="J12" s="312"/>
-      <c r="K12" s="312"/>
-      <c r="L12" s="312"/>
-      <c r="M12" s="312"/>
-      <c r="N12" s="312"/>
+      <c r="J12" s="309"/>
+      <c r="K12" s="309"/>
+      <c r="L12" s="309"/>
+      <c r="M12" s="309"/>
+      <c r="N12" s="309"/>
     </row>
     <row r="13" spans="2:14" ht="12" x14ac:dyDescent="0.2">
-      <c r="B13" s="313" t="s">
+      <c r="B13" s="307" t="s">
         <v>380</v>
       </c>
-      <c r="C13" s="307" t="s">
+      <c r="C13" s="310" t="s">
         <v>381</v>
       </c>
-      <c r="D13" s="307" t="s">
+      <c r="D13" s="310" t="s">
         <v>390</v>
       </c>
-      <c r="E13" s="307"/>
-      <c r="F13" s="307"/>
-      <c r="G13" s="308" t="s">
+      <c r="E13" s="310"/>
+      <c r="F13" s="310"/>
+      <c r="G13" s="305" t="s">
         <v>391</v>
       </c>
       <c r="H13" s="88"/>
-      <c r="I13" s="313" t="s">
+      <c r="I13" s="307" t="s">
         <v>380</v>
       </c>
-      <c r="J13" s="307" t="s">
+      <c r="J13" s="310" t="s">
         <v>381</v>
       </c>
-      <c r="K13" s="307" t="s">
+      <c r="K13" s="310" t="s">
         <v>390</v>
       </c>
-      <c r="L13" s="307"/>
-      <c r="M13" s="307"/>
-      <c r="N13" s="308" t="s">
+      <c r="L13" s="310"/>
+      <c r="M13" s="310"/>
+      <c r="N13" s="305" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="12" x14ac:dyDescent="0.2">
-      <c r="B14" s="314"/>
-      <c r="C14" s="315"/>
+      <c r="B14" s="308"/>
+      <c r="C14" s="311"/>
       <c r="D14" s="79" t="s">
         <v>392</v>
       </c>
@@ -10368,10 +10484,10 @@
       <c r="F14" s="79" t="s">
         <v>386</v>
       </c>
-      <c r="G14" s="309"/>
+      <c r="G14" s="306"/>
       <c r="H14" s="88"/>
-      <c r="I14" s="314"/>
-      <c r="J14" s="315"/>
+      <c r="I14" s="308"/>
+      <c r="J14" s="311"/>
       <c r="K14" s="79" t="s">
         <v>392</v>
       </c>
@@ -10381,7 +10497,7 @@
       <c r="M14" s="79" t="s">
         <v>386</v>
       </c>
-      <c r="N14" s="309"/>
+      <c r="N14" s="306"/>
     </row>
     <row r="15" spans="2:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="80">
@@ -10673,10 +10789,10 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="310" t="s">
+      <c r="B21" s="303" t="s">
         <v>403</v>
       </c>
-      <c r="C21" s="311"/>
+      <c r="C21" s="304"/>
       <c r="D21" s="85">
         <f>SUM(D15:D20)</f>
         <v>17</v>
@@ -10691,10 +10807,10 @@
       </c>
       <c r="G21" s="86"/>
       <c r="H21" s="88"/>
-      <c r="I21" s="310" t="s">
+      <c r="I21" s="303" t="s">
         <v>403</v>
       </c>
-      <c r="J21" s="311"/>
+      <c r="J21" s="304"/>
       <c r="K21" s="85">
         <f>SUM(K15:K20)</f>
         <v>14</v>
@@ -10725,58 +10841,58 @@
       <c r="N22" s="99"/>
     </row>
     <row r="23" spans="2:14" s="22" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="312" t="s">
+      <c r="B23" s="309" t="s">
         <v>396</v>
       </c>
-      <c r="C23" s="312"/>
-      <c r="D23" s="312"/>
-      <c r="E23" s="312"/>
-      <c r="F23" s="312"/>
-      <c r="G23" s="312"/>
+      <c r="C23" s="309"/>
+      <c r="D23" s="309"/>
+      <c r="E23" s="309"/>
+      <c r="F23" s="309"/>
+      <c r="G23" s="309"/>
       <c r="H23" s="107"/>
-      <c r="I23" s="312" t="s">
+      <c r="I23" s="309" t="s">
         <v>397</v>
       </c>
-      <c r="J23" s="312"/>
-      <c r="K23" s="312"/>
-      <c r="L23" s="312"/>
-      <c r="M23" s="312"/>
-      <c r="N23" s="312"/>
+      <c r="J23" s="309"/>
+      <c r="K23" s="309"/>
+      <c r="L23" s="309"/>
+      <c r="M23" s="309"/>
+      <c r="N23" s="309"/>
     </row>
     <row r="24" spans="2:14" ht="12" x14ac:dyDescent="0.2">
-      <c r="B24" s="313" t="s">
+      <c r="B24" s="307" t="s">
         <v>380</v>
       </c>
-      <c r="C24" s="307" t="s">
+      <c r="C24" s="310" t="s">
         <v>381</v>
       </c>
-      <c r="D24" s="307" t="s">
+      <c r="D24" s="310" t="s">
         <v>390</v>
       </c>
-      <c r="E24" s="307"/>
-      <c r="F24" s="307"/>
-      <c r="G24" s="308" t="s">
+      <c r="E24" s="310"/>
+      <c r="F24" s="310"/>
+      <c r="G24" s="305" t="s">
         <v>391</v>
       </c>
       <c r="H24" s="88"/>
-      <c r="I24" s="313" t="s">
+      <c r="I24" s="307" t="s">
         <v>380</v>
       </c>
-      <c r="J24" s="307" t="s">
+      <c r="J24" s="310" t="s">
         <v>381</v>
       </c>
-      <c r="K24" s="307" t="s">
+      <c r="K24" s="310" t="s">
         <v>390</v>
       </c>
-      <c r="L24" s="307"/>
-      <c r="M24" s="307"/>
-      <c r="N24" s="308" t="s">
+      <c r="L24" s="310"/>
+      <c r="M24" s="310"/>
+      <c r="N24" s="305" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="12" x14ac:dyDescent="0.2">
-      <c r="B25" s="314"/>
-      <c r="C25" s="315"/>
+      <c r="B25" s="308"/>
+      <c r="C25" s="311"/>
       <c r="D25" s="79" t="s">
         <v>392</v>
       </c>
@@ -10786,10 +10902,10 @@
       <c r="F25" s="79" t="s">
         <v>386</v>
       </c>
-      <c r="G25" s="309"/>
+      <c r="G25" s="306"/>
       <c r="H25" s="88"/>
-      <c r="I25" s="314"/>
-      <c r="J25" s="315"/>
+      <c r="I25" s="308"/>
+      <c r="J25" s="311"/>
       <c r="K25" s="79" t="s">
         <v>392</v>
       </c>
@@ -10799,7 +10915,7 @@
       <c r="M25" s="79" t="s">
         <v>386</v>
       </c>
-      <c r="N25" s="309"/>
+      <c r="N25" s="306"/>
     </row>
     <row r="26" spans="2:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B26" s="80">
@@ -11086,10 +11202,10 @@
       </c>
     </row>
     <row r="32" spans="2:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="310" t="s">
+      <c r="B32" s="303" t="s">
         <v>403</v>
       </c>
-      <c r="C32" s="311"/>
+      <c r="C32" s="304"/>
       <c r="D32" s="85">
         <f>SUM(D26:D31)</f>
         <v>16</v>
@@ -11104,10 +11220,10 @@
       </c>
       <c r="G32" s="86"/>
       <c r="H32" s="90"/>
-      <c r="I32" s="310" t="s">
+      <c r="I32" s="303" t="s">
         <v>403</v>
       </c>
-      <c r="J32" s="311"/>
+      <c r="J32" s="304"/>
       <c r="K32" s="85">
         <f t="shared" ref="K32:L32" si="1">SUM(K26:K31)</f>
         <v>17</v>
@@ -11187,58 +11303,58 @@
       <c r="N35" s="103"/>
     </row>
     <row r="36" spans="2:14" s="22" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="312" t="s">
+      <c r="B36" s="309" t="s">
         <v>402</v>
       </c>
-      <c r="C36" s="312"/>
-      <c r="D36" s="312"/>
-      <c r="E36" s="312"/>
-      <c r="F36" s="312"/>
-      <c r="G36" s="312"/>
+      <c r="C36" s="309"/>
+      <c r="D36" s="309"/>
+      <c r="E36" s="309"/>
+      <c r="F36" s="309"/>
+      <c r="G36" s="309"/>
       <c r="H36" s="107"/>
-      <c r="I36" s="312" t="s">
+      <c r="I36" s="309" t="s">
         <v>400</v>
       </c>
-      <c r="J36" s="312"/>
-      <c r="K36" s="312"/>
-      <c r="L36" s="312"/>
-      <c r="M36" s="312"/>
-      <c r="N36" s="312"/>
+      <c r="J36" s="309"/>
+      <c r="K36" s="309"/>
+      <c r="L36" s="309"/>
+      <c r="M36" s="309"/>
+      <c r="N36" s="309"/>
     </row>
     <row r="37" spans="2:14" ht="12" x14ac:dyDescent="0.2">
-      <c r="B37" s="313" t="s">
+      <c r="B37" s="307" t="s">
         <v>380</v>
       </c>
-      <c r="C37" s="307" t="s">
+      <c r="C37" s="310" t="s">
         <v>381</v>
       </c>
-      <c r="D37" s="307" t="s">
+      <c r="D37" s="310" t="s">
         <v>390</v>
       </c>
-      <c r="E37" s="307"/>
-      <c r="F37" s="307"/>
-      <c r="G37" s="308" t="s">
+      <c r="E37" s="310"/>
+      <c r="F37" s="310"/>
+      <c r="G37" s="305" t="s">
         <v>391</v>
       </c>
       <c r="H37" s="88"/>
-      <c r="I37" s="313" t="s">
+      <c r="I37" s="307" t="s">
         <v>380</v>
       </c>
-      <c r="J37" s="307" t="s">
+      <c r="J37" s="310" t="s">
         <v>381</v>
       </c>
-      <c r="K37" s="307" t="s">
+      <c r="K37" s="310" t="s">
         <v>390</v>
       </c>
-      <c r="L37" s="307"/>
-      <c r="M37" s="307"/>
-      <c r="N37" s="308" t="s">
+      <c r="L37" s="310"/>
+      <c r="M37" s="310"/>
+      <c r="N37" s="305" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="12" x14ac:dyDescent="0.2">
-      <c r="B38" s="314"/>
-      <c r="C38" s="315"/>
+      <c r="B38" s="308"/>
+      <c r="C38" s="311"/>
       <c r="D38" s="79" t="s">
         <v>392</v>
       </c>
@@ -11248,10 +11364,10 @@
       <c r="F38" s="79" t="s">
         <v>386</v>
       </c>
-      <c r="G38" s="309"/>
+      <c r="G38" s="306"/>
       <c r="H38" s="88"/>
-      <c r="I38" s="314"/>
-      <c r="J38" s="315"/>
+      <c r="I38" s="308"/>
+      <c r="J38" s="311"/>
       <c r="K38" s="79" t="s">
         <v>392</v>
       </c>
@@ -11261,7 +11377,7 @@
       <c r="M38" s="79" t="s">
         <v>386</v>
       </c>
-      <c r="N38" s="309"/>
+      <c r="N38" s="306"/>
     </row>
     <row r="39" spans="2:14" ht="12" x14ac:dyDescent="0.2">
       <c r="B39" s="80">
@@ -11474,22 +11590,22 @@
         <v>0</v>
       </c>
       <c r="H43" s="84"/>
-      <c r="I43" s="317" t="s">
-        <v>0</v>
-      </c>
-      <c r="J43" s="318" t="s">
+      <c r="I43" s="299" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" s="300" t="s">
         <v>398</v>
       </c>
-      <c r="K43" s="320">
-        <v>3</v>
-      </c>
-      <c r="L43" s="320">
-        <v>0</v>
-      </c>
-      <c r="M43" s="320">
-        <v>3</v>
-      </c>
-      <c r="N43" s="316" t="s">
+      <c r="K43" s="302">
+        <v>3</v>
+      </c>
+      <c r="L43" s="302">
+        <v>0</v>
+      </c>
+      <c r="M43" s="302">
+        <v>3</v>
+      </c>
+      <c r="N43" s="298" t="s">
         <v>0</v>
       </c>
     </row>
@@ -11513,18 +11629,18 @@
         <v>0</v>
       </c>
       <c r="H44" s="84"/>
-      <c r="I44" s="317"/>
-      <c r="J44" s="319"/>
-      <c r="K44" s="320"/>
-      <c r="L44" s="320"/>
-      <c r="M44" s="320"/>
-      <c r="N44" s="316"/>
+      <c r="I44" s="299"/>
+      <c r="J44" s="301"/>
+      <c r="K44" s="302"/>
+      <c r="L44" s="302"/>
+      <c r="M44" s="302"/>
+      <c r="N44" s="298"/>
     </row>
     <row r="45" spans="2:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="310" t="s">
+      <c r="B45" s="303" t="s">
         <v>386</v>
       </c>
-      <c r="C45" s="311"/>
+      <c r="C45" s="304"/>
       <c r="D45" s="85">
         <f t="shared" ref="D45:E45" si="2">SUM(D39:D44)</f>
         <v>14</v>
@@ -11539,10 +11655,10 @@
       </c>
       <c r="G45" s="86"/>
       <c r="H45" s="87"/>
-      <c r="I45" s="310" t="s">
+      <c r="I45" s="303" t="s">
         <v>386</v>
       </c>
-      <c r="J45" s="311"/>
+      <c r="J45" s="304"/>
       <c r="K45" s="85">
         <f>SUM(K39:K43)</f>
         <v>12</v>
@@ -11565,84 +11681,41 @@
       <c r="F46" s="105"/>
       <c r="G46" s="106"/>
       <c r="H46" s="69"/>
-      <c r="I46" s="302"/>
-      <c r="J46" s="302"/>
-      <c r="K46" s="302"/>
+      <c r="I46" s="316"/>
+      <c r="J46" s="316"/>
+      <c r="K46" s="316"/>
       <c r="L46" s="106"/>
       <c r="M46" s="106"/>
       <c r="N46" s="106"/>
     </row>
     <row r="47" spans="2:14" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="298" t="s">
+      <c r="B47" s="312" t="s">
         <v>419</v>
       </c>
-      <c r="C47" s="299"/>
-      <c r="D47" s="299"/>
-      <c r="E47" s="299"/>
-      <c r="F47" s="299"/>
-      <c r="G47" s="299"/>
-      <c r="H47" s="300">
+      <c r="C47" s="313"/>
+      <c r="D47" s="313"/>
+      <c r="E47" s="313"/>
+      <c r="F47" s="313"/>
+      <c r="G47" s="313"/>
+      <c r="H47" s="314">
         <f>F10+M10+F21+M21+F32+M32+F34+F45+M45</f>
         <v>132</v>
       </c>
-      <c r="I47" s="300"/>
-      <c r="J47" s="300" t="s">
+      <c r="I47" s="314"/>
+      <c r="J47" s="314" t="s">
         <v>587</v>
       </c>
-      <c r="K47" s="300"/>
-      <c r="L47" s="300"/>
-      <c r="M47" s="300"/>
-      <c r="N47" s="301"/>
+      <c r="K47" s="314"/>
+      <c r="L47" s="314"/>
+      <c r="M47" s="314"/>
+      <c r="N47" s="315"/>
     </row>
     <row r="48" spans="2:14" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sortState ref="I39:I41">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I39:I41">
     <sortCondition ref="I39"/>
   </sortState>
   <mergeCells count="59">
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:G38"/>
     <mergeCell ref="B47:G47"/>
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="J47:N47"/>
@@ -11659,6 +11732,49 @@
     <mergeCell ref="J24:J25"/>
     <mergeCell ref="J37:J38"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -11669,14 +11785,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:R47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11699,35 +11815,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" s="73" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="339" t="s">
+      <c r="B1" s="321" t="s">
         <v>604</v>
       </c>
-      <c r="C1" s="339"/>
-      <c r="D1" s="339"/>
-      <c r="E1" s="339"/>
-      <c r="F1" s="339"/>
-      <c r="G1" s="339"/>
-      <c r="H1" s="339"/>
-      <c r="I1" s="339"/>
-      <c r="J1" s="339"/>
-      <c r="K1" s="339"/>
-      <c r="L1" s="339"/>
-      <c r="M1" s="339"/>
-      <c r="N1" s="339"/>
-      <c r="O1" s="339"/>
-      <c r="P1" s="339"/>
+      <c r="C1" s="321"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="321"/>
+      <c r="F1" s="321"/>
+      <c r="G1" s="321"/>
+      <c r="H1" s="321"/>
+      <c r="I1" s="321"/>
+      <c r="J1" s="321"/>
+      <c r="K1" s="321"/>
+      <c r="L1" s="321"/>
+      <c r="M1" s="340"/>
+      <c r="N1" s="340"/>
+      <c r="O1" s="340"/>
+      <c r="P1" s="340"/>
       <c r="Q1" s="131"/>
       <c r="R1" s="131"/>
     </row>
     <row r="2" spans="2:18" s="77" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="337" t="s">
+      <c r="B2" s="322" t="s">
         <v>438</v>
       </c>
-      <c r="C2" s="337"/>
-      <c r="D2" s="337"/>
-      <c r="E2" s="337"/>
-      <c r="F2" s="337"/>
-      <c r="G2" s="337"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="322"/>
+      <c r="E2" s="322"/>
+      <c r="F2" s="322"/>
+      <c r="G2" s="322"/>
       <c r="H2" s="138" t="s">
         <v>641</v>
       </c>
@@ -11735,59 +11851,59 @@
         <v>632</v>
       </c>
       <c r="J2" s="74"/>
-      <c r="K2" s="338" t="s">
+      <c r="K2" s="323" t="s">
         <v>439</v>
       </c>
-      <c r="L2" s="337"/>
-      <c r="M2" s="337"/>
-      <c r="N2" s="337"/>
-      <c r="O2" s="337"/>
-      <c r="P2" s="337"/>
+      <c r="L2" s="322"/>
+      <c r="M2" s="322"/>
+      <c r="N2" s="322"/>
+      <c r="O2" s="322"/>
+      <c r="P2" s="322"/>
       <c r="Q2" s="138"/>
       <c r="R2" s="139"/>
     </row>
     <row r="3" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="335" t="s">
+      <c r="B3" s="324" t="s">
         <v>561</v>
       </c>
-      <c r="C3" s="327" t="s">
+      <c r="C3" s="326" t="s">
         <v>566</v>
       </c>
-      <c r="D3" s="307" t="s">
+      <c r="D3" s="310" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="307"/>
-      <c r="F3" s="307"/>
-      <c r="G3" s="308" t="s">
+      <c r="E3" s="310"/>
+      <c r="F3" s="310"/>
+      <c r="G3" s="305" t="s">
         <v>567</v>
       </c>
-      <c r="H3" s="323" t="s">
+      <c r="H3" s="336" t="s">
         <v>652</v>
       </c>
-      <c r="I3" s="324"/>
+      <c r="I3" s="337"/>
       <c r="J3" s="78"/>
-      <c r="K3" s="335" t="s">
+      <c r="K3" s="324" t="s">
         <v>561</v>
       </c>
-      <c r="L3" s="327" t="s">
+      <c r="L3" s="326" t="s">
         <v>566</v>
       </c>
-      <c r="M3" s="307" t="s">
+      <c r="M3" s="310" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="307"/>
-      <c r="O3" s="307"/>
-      <c r="P3" s="308" t="s">
+      <c r="N3" s="310"/>
+      <c r="O3" s="310"/>
+      <c r="P3" s="305" t="s">
         <v>567</v>
       </c>
-      <c r="Q3" s="323" t="s">
+      <c r="Q3" s="336" t="s">
         <v>652</v>
       </c>
-      <c r="R3" s="324"/>
+      <c r="R3" s="337"/>
     </row>
     <row r="4" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="336"/>
-      <c r="C4" s="328"/>
+      <c r="B4" s="325"/>
+      <c r="C4" s="327"/>
       <c r="D4" s="79" t="s">
         <v>2</v>
       </c>
@@ -11797,7 +11913,7 @@
       <c r="F4" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="309"/>
+      <c r="G4" s="306"/>
       <c r="H4" s="140" t="s">
         <v>653</v>
       </c>
@@ -11805,8 +11921,8 @@
         <v>654</v>
       </c>
       <c r="J4" s="78"/>
-      <c r="K4" s="336"/>
-      <c r="L4" s="328"/>
+      <c r="K4" s="325"/>
+      <c r="L4" s="327"/>
       <c r="M4" s="79" t="s">
         <v>2</v>
       </c>
@@ -11816,7 +11932,7 @@
       <c r="O4" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="309"/>
+      <c r="P4" s="306"/>
       <c r="Q4" s="140" t="s">
         <v>653</v>
       </c>
@@ -12089,10 +12205,10 @@
       <c r="R9" s="147"/>
     </row>
     <row r="10" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="310" t="s">
+      <c r="B10" s="303" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="311"/>
+      <c r="C10" s="304"/>
       <c r="D10" s="85">
         <f>SUM(D5:D9)</f>
         <v>14</v>
@@ -12106,13 +12222,13 @@
         <v>15</v>
       </c>
       <c r="G10" s="86"/>
-      <c r="H10" s="321"/>
-      <c r="I10" s="322"/>
+      <c r="H10" s="328"/>
+      <c r="I10" s="329"/>
       <c r="J10" s="87"/>
-      <c r="K10" s="310" t="s">
+      <c r="K10" s="303" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="311"/>
+      <c r="L10" s="304"/>
       <c r="M10" s="85">
         <f>SUM(M5:M9)</f>
         <v>14</v>
@@ -12126,8 +12242,8 @@
         <v>15</v>
       </c>
       <c r="P10" s="86"/>
-      <c r="Q10" s="321"/>
-      <c r="R10" s="322"/>
+      <c r="Q10" s="328"/>
+      <c r="R10" s="329"/>
     </row>
     <row r="11" spans="2:18" s="68" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52"/>
@@ -12149,70 +12265,70 @@
       <c r="R11" s="54"/>
     </row>
     <row r="12" spans="2:18" s="77" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="338" t="s">
+      <c r="B12" s="323" t="s">
         <v>440</v>
       </c>
-      <c r="C12" s="337"/>
-      <c r="D12" s="337"/>
-      <c r="E12" s="337"/>
-      <c r="F12" s="337"/>
-      <c r="G12" s="337"/>
+      <c r="C12" s="322"/>
+      <c r="D12" s="322"/>
+      <c r="E12" s="322"/>
+      <c r="F12" s="322"/>
+      <c r="G12" s="322"/>
       <c r="H12" s="138"/>
       <c r="I12" s="139"/>
       <c r="J12" s="75"/>
-      <c r="K12" s="337" t="s">
+      <c r="K12" s="322" t="s">
         <v>441</v>
       </c>
-      <c r="L12" s="337"/>
-      <c r="M12" s="337"/>
-      <c r="N12" s="337"/>
-      <c r="O12" s="337"/>
-      <c r="P12" s="337"/>
+      <c r="L12" s="322"/>
+      <c r="M12" s="322"/>
+      <c r="N12" s="322"/>
+      <c r="O12" s="322"/>
+      <c r="P12" s="322"/>
       <c r="Q12" s="138"/>
       <c r="R12" s="139"/>
     </row>
     <row r="13" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="335" t="s">
+      <c r="B13" s="324" t="s">
         <v>561</v>
       </c>
-      <c r="C13" s="327" t="s">
+      <c r="C13" s="326" t="s">
         <v>566</v>
       </c>
-      <c r="D13" s="307" t="s">
+      <c r="D13" s="310" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="307"/>
-      <c r="F13" s="307"/>
-      <c r="G13" s="308" t="s">
+      <c r="E13" s="310"/>
+      <c r="F13" s="310"/>
+      <c r="G13" s="305" t="s">
         <v>567</v>
       </c>
-      <c r="H13" s="323" t="s">
+      <c r="H13" s="336" t="s">
         <v>652</v>
       </c>
-      <c r="I13" s="324"/>
+      <c r="I13" s="337"/>
       <c r="J13" s="88"/>
-      <c r="K13" s="335" t="s">
+      <c r="K13" s="324" t="s">
         <v>561</v>
       </c>
-      <c r="L13" s="327" t="s">
+      <c r="L13" s="326" t="s">
         <v>566</v>
       </c>
-      <c r="M13" s="307" t="s">
+      <c r="M13" s="310" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="307"/>
-      <c r="O13" s="307"/>
-      <c r="P13" s="308" t="s">
+      <c r="N13" s="310"/>
+      <c r="O13" s="310"/>
+      <c r="P13" s="305" t="s">
         <v>567</v>
       </c>
-      <c r="Q13" s="323" t="s">
+      <c r="Q13" s="336" t="s">
         <v>652</v>
       </c>
-      <c r="R13" s="324"/>
+      <c r="R13" s="337"/>
     </row>
     <row r="14" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="336"/>
-      <c r="C14" s="328"/>
+      <c r="B14" s="325"/>
+      <c r="C14" s="327"/>
       <c r="D14" s="79" t="s">
         <v>2</v>
       </c>
@@ -12222,7 +12338,7 @@
       <c r="F14" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="309"/>
+      <c r="G14" s="306"/>
       <c r="H14" s="140" t="s">
         <v>653</v>
       </c>
@@ -12230,8 +12346,8 @@
         <v>654</v>
       </c>
       <c r="J14" s="88"/>
-      <c r="K14" s="336"/>
-      <c r="L14" s="328"/>
+      <c r="K14" s="325"/>
+      <c r="L14" s="327"/>
       <c r="M14" s="79" t="s">
         <v>2</v>
       </c>
@@ -12241,7 +12357,7 @@
       <c r="O14" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="309"/>
+      <c r="P14" s="306"/>
       <c r="Q14" s="140" t="s">
         <v>653</v>
       </c>
@@ -12563,10 +12679,10 @@
       <c r="R20" s="144"/>
     </row>
     <row r="21" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="310" t="s">
+      <c r="B21" s="303" t="s">
         <v>568</v>
       </c>
-      <c r="C21" s="311"/>
+      <c r="C21" s="304"/>
       <c r="D21" s="85">
         <f>SUM(D15:D20)</f>
         <v>17</v>
@@ -12580,13 +12696,13 @@
         <v>18</v>
       </c>
       <c r="G21" s="86"/>
-      <c r="H21" s="321"/>
-      <c r="I21" s="322"/>
+      <c r="H21" s="328"/>
+      <c r="I21" s="329"/>
       <c r="J21" s="88"/>
-      <c r="K21" s="310" t="s">
+      <c r="K21" s="303" t="s">
         <v>568</v>
       </c>
-      <c r="L21" s="311"/>
+      <c r="L21" s="304"/>
       <c r="M21" s="85">
         <f>SUM(M15:M20)</f>
         <v>14</v>
@@ -12600,8 +12716,8 @@
         <v>18</v>
       </c>
       <c r="P21" s="86"/>
-      <c r="Q21" s="321"/>
-      <c r="R21" s="322"/>
+      <c r="Q21" s="328"/>
+      <c r="R21" s="329"/>
     </row>
     <row r="22" spans="2:18" s="68" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52"/>
@@ -12623,70 +12739,70 @@
       <c r="R22" s="54"/>
     </row>
     <row r="23" spans="2:18" s="77" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="337" t="s">
+      <c r="B23" s="322" t="s">
         <v>443</v>
       </c>
-      <c r="C23" s="337"/>
-      <c r="D23" s="337"/>
-      <c r="E23" s="337"/>
-      <c r="F23" s="337"/>
-      <c r="G23" s="337"/>
+      <c r="C23" s="322"/>
+      <c r="D23" s="322"/>
+      <c r="E23" s="322"/>
+      <c r="F23" s="322"/>
+      <c r="G23" s="322"/>
       <c r="H23" s="138"/>
       <c r="I23" s="139"/>
       <c r="J23" s="76"/>
-      <c r="K23" s="337" t="s">
+      <c r="K23" s="322" t="s">
         <v>444</v>
       </c>
-      <c r="L23" s="337"/>
-      <c r="M23" s="337"/>
-      <c r="N23" s="337"/>
-      <c r="O23" s="337"/>
-      <c r="P23" s="337"/>
+      <c r="L23" s="322"/>
+      <c r="M23" s="322"/>
+      <c r="N23" s="322"/>
+      <c r="O23" s="322"/>
+      <c r="P23" s="322"/>
       <c r="Q23" s="138"/>
       <c r="R23" s="139"/>
     </row>
     <row r="24" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="335" t="s">
+      <c r="B24" s="324" t="s">
         <v>561</v>
       </c>
-      <c r="C24" s="327" t="s">
+      <c r="C24" s="326" t="s">
         <v>566</v>
       </c>
-      <c r="D24" s="307" t="s">
+      <c r="D24" s="310" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="307"/>
-      <c r="F24" s="307"/>
-      <c r="G24" s="308" t="s">
+      <c r="E24" s="310"/>
+      <c r="F24" s="310"/>
+      <c r="G24" s="305" t="s">
         <v>567</v>
       </c>
-      <c r="H24" s="323" t="s">
+      <c r="H24" s="336" t="s">
         <v>652</v>
       </c>
-      <c r="I24" s="324"/>
+      <c r="I24" s="337"/>
       <c r="J24" s="88"/>
-      <c r="K24" s="335" t="s">
+      <c r="K24" s="324" t="s">
         <v>561</v>
       </c>
-      <c r="L24" s="327" t="s">
+      <c r="L24" s="326" t="s">
         <v>566</v>
       </c>
-      <c r="M24" s="307" t="s">
+      <c r="M24" s="310" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="307"/>
-      <c r="O24" s="307"/>
-      <c r="P24" s="308" t="s">
+      <c r="N24" s="310"/>
+      <c r="O24" s="310"/>
+      <c r="P24" s="305" t="s">
         <v>567</v>
       </c>
-      <c r="Q24" s="323" t="s">
+      <c r="Q24" s="336" t="s">
         <v>652</v>
       </c>
-      <c r="R24" s="324"/>
+      <c r="R24" s="337"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="336"/>
-      <c r="C25" s="328"/>
+      <c r="B25" s="325"/>
+      <c r="C25" s="327"/>
       <c r="D25" s="79" t="s">
         <v>2</v>
       </c>
@@ -12696,7 +12812,7 @@
       <c r="F25" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="309"/>
+      <c r="G25" s="306"/>
       <c r="H25" s="140" t="s">
         <v>653</v>
       </c>
@@ -12704,8 +12820,8 @@
         <v>654</v>
       </c>
       <c r="J25" s="88"/>
-      <c r="K25" s="336"/>
-      <c r="L25" s="328"/>
+      <c r="K25" s="325"/>
+      <c r="L25" s="327"/>
       <c r="M25" s="79" t="s">
         <v>2</v>
       </c>
@@ -12715,7 +12831,7 @@
       <c r="O25" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="309"/>
+      <c r="P25" s="306"/>
       <c r="Q25" s="140" t="s">
         <v>653</v>
       </c>
@@ -13032,10 +13148,10 @@
       <c r="R31" s="144"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="310" t="s">
+      <c r="B32" s="303" t="s">
         <v>568</v>
       </c>
-      <c r="C32" s="311"/>
+      <c r="C32" s="304"/>
       <c r="D32" s="85">
         <f>SUM(D26:D31)</f>
         <v>16</v>
@@ -13049,13 +13165,13 @@
         <v>18</v>
       </c>
       <c r="G32" s="86"/>
-      <c r="H32" s="321"/>
-      <c r="I32" s="322"/>
+      <c r="H32" s="328"/>
+      <c r="I32" s="329"/>
       <c r="J32" s="90"/>
-      <c r="K32" s="310" t="s">
+      <c r="K32" s="303" t="s">
         <v>568</v>
       </c>
-      <c r="L32" s="311"/>
+      <c r="L32" s="304"/>
       <c r="M32" s="85">
         <f t="shared" ref="M32:N32" si="1">SUM(M26:M31)</f>
         <v>17</v>
@@ -13069,8 +13185,8 @@
         <v>18</v>
       </c>
       <c r="P32" s="86"/>
-      <c r="Q32" s="321"/>
-      <c r="R32" s="322"/>
+      <c r="Q32" s="328"/>
+      <c r="R32" s="329"/>
     </row>
     <row r="33" spans="2:18" s="69" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="55"/>
@@ -13149,70 +13265,70 @@
       <c r="R35" s="51"/>
     </row>
     <row r="36" spans="2:18" s="77" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="337" t="s">
+      <c r="B36" s="322" t="s">
         <v>446</v>
       </c>
-      <c r="C36" s="337"/>
-      <c r="D36" s="337"/>
-      <c r="E36" s="337"/>
-      <c r="F36" s="337"/>
-      <c r="G36" s="337"/>
+      <c r="C36" s="322"/>
+      <c r="D36" s="322"/>
+      <c r="E36" s="322"/>
+      <c r="F36" s="322"/>
+      <c r="G36" s="322"/>
       <c r="H36" s="138"/>
       <c r="I36" s="139"/>
       <c r="J36" s="76"/>
-      <c r="K36" s="337" t="s">
+      <c r="K36" s="322" t="s">
         <v>447</v>
       </c>
-      <c r="L36" s="337"/>
-      <c r="M36" s="337"/>
-      <c r="N36" s="337"/>
-      <c r="O36" s="337"/>
-      <c r="P36" s="337"/>
+      <c r="L36" s="322"/>
+      <c r="M36" s="322"/>
+      <c r="N36" s="322"/>
+      <c r="O36" s="322"/>
+      <c r="P36" s="322"/>
       <c r="Q36" s="138"/>
       <c r="R36" s="139"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="335" t="s">
+      <c r="B37" s="324" t="s">
         <v>561</v>
       </c>
-      <c r="C37" s="327" t="s">
+      <c r="C37" s="326" t="s">
         <v>566</v>
       </c>
-      <c r="D37" s="307" t="s">
+      <c r="D37" s="310" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="307"/>
-      <c r="F37" s="307"/>
-      <c r="G37" s="308" t="s">
+      <c r="E37" s="310"/>
+      <c r="F37" s="310"/>
+      <c r="G37" s="305" t="s">
         <v>567</v>
       </c>
-      <c r="H37" s="323" t="s">
+      <c r="H37" s="336" t="s">
         <v>652</v>
       </c>
-      <c r="I37" s="324"/>
+      <c r="I37" s="337"/>
       <c r="J37" s="88"/>
-      <c r="K37" s="335" t="s">
+      <c r="K37" s="324" t="s">
         <v>561</v>
       </c>
-      <c r="L37" s="327" t="s">
+      <c r="L37" s="326" t="s">
         <v>566</v>
       </c>
-      <c r="M37" s="307" t="s">
+      <c r="M37" s="310" t="s">
         <v>1</v>
       </c>
-      <c r="N37" s="307"/>
-      <c r="O37" s="307"/>
-      <c r="P37" s="308" t="s">
+      <c r="N37" s="310"/>
+      <c r="O37" s="310"/>
+      <c r="P37" s="305" t="s">
         <v>567</v>
       </c>
-      <c r="Q37" s="323" t="s">
+      <c r="Q37" s="336" t="s">
         <v>652</v>
       </c>
-      <c r="R37" s="324"/>
+      <c r="R37" s="337"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="336"/>
-      <c r="C38" s="328"/>
+      <c r="B38" s="325"/>
+      <c r="C38" s="327"/>
       <c r="D38" s="79" t="s">
         <v>2</v>
       </c>
@@ -13222,7 +13338,7 @@
       <c r="F38" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="G38" s="309"/>
+      <c r="G38" s="306"/>
       <c r="H38" s="140" t="s">
         <v>653</v>
       </c>
@@ -13230,8 +13346,8 @@
         <v>654</v>
       </c>
       <c r="J38" s="88"/>
-      <c r="K38" s="336"/>
-      <c r="L38" s="328"/>
+      <c r="K38" s="325"/>
+      <c r="L38" s="327"/>
       <c r="M38" s="79" t="s">
         <v>2</v>
       </c>
@@ -13241,7 +13357,7 @@
       <c r="O38" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="P38" s="309"/>
+      <c r="P38" s="306"/>
       <c r="Q38" s="140" t="s">
         <v>653</v>
       </c>
@@ -13478,22 +13594,22 @@
       <c r="H43" s="143"/>
       <c r="I43" s="144"/>
       <c r="J43" s="84"/>
-      <c r="K43" s="317" t="s">
-        <v>0</v>
-      </c>
-      <c r="L43" s="325" t="s">
+      <c r="K43" s="299" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" s="338" t="s">
         <v>580</v>
       </c>
-      <c r="M43" s="320">
-        <v>3</v>
-      </c>
-      <c r="N43" s="320">
-        <v>0</v>
-      </c>
-      <c r="O43" s="320">
-        <v>3</v>
-      </c>
-      <c r="P43" s="316" t="s">
+      <c r="M43" s="302">
+        <v>3</v>
+      </c>
+      <c r="N43" s="302">
+        <v>0</v>
+      </c>
+      <c r="O43" s="302">
+        <v>3</v>
+      </c>
+      <c r="P43" s="298" t="s">
         <v>0</v>
       </c>
       <c r="Q43" s="143"/>
@@ -13521,20 +13637,20 @@
       <c r="H44" s="143"/>
       <c r="I44" s="144"/>
       <c r="J44" s="84"/>
-      <c r="K44" s="317"/>
-      <c r="L44" s="326"/>
-      <c r="M44" s="320"/>
-      <c r="N44" s="320"/>
-      <c r="O44" s="320"/>
-      <c r="P44" s="316"/>
+      <c r="K44" s="299"/>
+      <c r="L44" s="339"/>
+      <c r="M44" s="302"/>
+      <c r="N44" s="302"/>
+      <c r="O44" s="302"/>
+      <c r="P44" s="298"/>
       <c r="Q44" s="143"/>
       <c r="R44" s="144"/>
     </row>
     <row r="45" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="310" t="s">
+      <c r="B45" s="303" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="311"/>
+      <c r="C45" s="304"/>
       <c r="D45" s="85">
         <f t="shared" ref="D45:E45" si="2">SUM(D39:D44)</f>
         <v>14</v>
@@ -13548,13 +13664,13 @@
         <v>16</v>
       </c>
       <c r="G45" s="86"/>
-      <c r="H45" s="321"/>
-      <c r="I45" s="322"/>
+      <c r="H45" s="328"/>
+      <c r="I45" s="329"/>
       <c r="J45" s="87"/>
-      <c r="K45" s="310" t="s">
+      <c r="K45" s="303" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="311"/>
+      <c r="L45" s="304"/>
       <c r="M45" s="85">
         <f>SUM(M39:M43)</f>
         <v>12</v>
@@ -13568,8 +13684,8 @@
         <v>14</v>
       </c>
       <c r="P45" s="86"/>
-      <c r="Q45" s="321"/>
-      <c r="R45" s="322"/>
+      <c r="Q45" s="328"/>
+      <c r="R45" s="329"/>
     </row>
     <row r="46" spans="2:18" s="69" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="58"/>
@@ -13581,9 +13697,9 @@
       <c r="H46" s="60"/>
       <c r="I46" s="60"/>
       <c r="J46" s="60"/>
-      <c r="K46" s="329"/>
-      <c r="L46" s="329"/>
-      <c r="M46" s="329"/>
+      <c r="K46" s="330"/>
+      <c r="L46" s="330"/>
+      <c r="M46" s="330"/>
       <c r="N46" s="59"/>
       <c r="O46" s="59"/>
       <c r="P46" s="59"/>
@@ -13591,95 +13707,35 @@
       <c r="R46" s="60"/>
     </row>
     <row r="47" spans="2:18" s="72" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="333" t="s">
+      <c r="B47" s="334" t="s">
         <v>448</v>
       </c>
-      <c r="C47" s="331"/>
-      <c r="D47" s="334" t="s">
+      <c r="C47" s="332"/>
+      <c r="D47" s="335" t="s">
         <v>570</v>
       </c>
-      <c r="E47" s="334"/>
-      <c r="F47" s="334"/>
-      <c r="G47" s="334"/>
+      <c r="E47" s="335"/>
+      <c r="F47" s="335"/>
+      <c r="G47" s="335"/>
       <c r="H47" s="130"/>
       <c r="I47" s="130"/>
-      <c r="J47" s="330">
+      <c r="J47" s="331">
         <f>F10+O10+F21+O21+F32+O32+F34+F45+O45</f>
         <v>132</v>
       </c>
-      <c r="K47" s="330"/>
-      <c r="L47" s="331" t="s">
+      <c r="K47" s="331"/>
+      <c r="L47" s="332" t="s">
         <v>588</v>
       </c>
-      <c r="M47" s="331"/>
-      <c r="N47" s="331"/>
-      <c r="O47" s="331"/>
-      <c r="P47" s="332"/>
+      <c r="M47" s="332"/>
+      <c r="N47" s="332"/>
+      <c r="O47" s="332"/>
+      <c r="P47" s="333"/>
       <c r="Q47" s="134"/>
       <c r="R47" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="B1:P1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="K36:P36"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:P47"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="Q45:R45"/>
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="Q32:R32"/>
@@ -13696,12 +13752,72 @@
     <mergeCell ref="O43:O44"/>
     <mergeCell ref="P43:P44"/>
     <mergeCell ref="L37:L38"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:P47"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="K36:P36"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="B1:L1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Example" prompt="20161_x000a_20162" sqref="H7:H10 H5 Q7:Q10 Q5 H15 H17:H21 Q15 Q17:Q21 Q26 Q28:Q32 H26 H28:H32 H39 H41:H45 Q39 Q41:Q45">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Example" prompt="20161_x000a_20162" sqref="H7:H10 H5 Q7:Q10 Q5 H15 H17:H21 Q15 Q17:Q21 Q26 Q28:Q32 H26 H28:H32 H39 H41:H45 Q39 Q41:Q45" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>20140</formula1>
     </dataValidation>
-    <dataValidation type="custom" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Registration Semester" prompt="Please enter the academic year of the registration and semester. For example, the value 20161 represents the first semester of the academic year 2016." sqref="H6 Q6 H16 Q16 Q27 H27 H40 Q40">
+    <dataValidation type="custom" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Registration Semester" prompt="Please enter the academic year of the registration and semester. For example, the value 20161 represents the first semester of the academic year 2016." sqref="H6 Q6 H16 Q16 Q27 H27 H40 Q40" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>20160</formula1>
     </dataValidation>
   </dataValidations>
@@ -13714,19 +13830,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status:" prompt="☼ Registered according to advising plan._x000a_► Registered in a later semester_x000a_◄ Registered in a semester before._x000a_↔ Compensated course (معوضة)._x000a_≈ Equivalent course (معادلة)._x000a_※ Alternative course (بديلة)._x000a_‼ Registered violating advising plan.">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status:" prompt="☼ Registered according to advising plan._x000a_► Registered in a later semester_x000a_◄ Registered in a semester before._x000a_↔ Compensated course (معوضة)._x000a_≈ Equivalent course (معادلة)._x000a_※ Alternative course (بديلة)._x000a_‼ Registered violating advising plan." xr:uid="{00000000-0002-0000-0300-000002000000}">
           <x14:formula1>
             <xm:f>'Academic advising'!$A$2:$A$9</xm:f>
           </x14:formula1>
           <xm:sqref>I5:I10 R5:R10 I15:I21 R15:R21 R26:R32 I26:I32 I39:I45 R39:R45</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
           <x14:formula1>
             <xm:f>'Academic advising'!$A$13:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>I2 R2 I12 R12 R23 I23 I36 R36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000004000000}">
           <x14:formula1>
             <xm:f>'Academic advising'!$A$20:$A$35</xm:f>
           </x14:formula1>
@@ -13739,7 +13855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P290"/>
   <sheetViews>
     <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
@@ -22276,7 +22392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
